--- a/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.52332639313075</v>
+        <v>17.52332639313086</v>
       </c>
       <c r="C2">
-        <v>16.79073150859077</v>
+        <v>16.79073150859089</v>
       </c>
       <c r="D2">
-        <v>7.201921846060482</v>
+        <v>7.201921846060465</v>
       </c>
       <c r="E2">
-        <v>11.90669091853326</v>
+        <v>11.90669091853328</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.66943394764287</v>
+        <v>35.66943394764283</v>
       </c>
       <c r="H2">
-        <v>29.95600831324465</v>
+        <v>29.9560083132446</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.05765706708196</v>
+        <v>17.0576570670821</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.45249326439352</v>
+        <v>17.45249326439362</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.26382955933992</v>
+        <v>16.26382955933994</v>
       </c>
       <c r="C3">
-        <v>15.55212778677258</v>
+        <v>15.55212778677252</v>
       </c>
       <c r="D3">
-        <v>6.680156141145677</v>
+        <v>6.680156141145721</v>
       </c>
       <c r="E3">
-        <v>11.19933978037979</v>
+        <v>11.1993397803798</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.85853124021018</v>
+        <v>33.85853124021019</v>
       </c>
       <c r="H3">
-        <v>28.64188659720757</v>
+        <v>28.64188659720756</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.8508785779972</v>
+        <v>15.85087857799719</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.21528566113796</v>
+        <v>16.215285661138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.45328191738295</v>
+        <v>15.45328191738297</v>
       </c>
       <c r="C4">
-        <v>14.75697776632496</v>
+        <v>14.75697776632487</v>
       </c>
       <c r="D4">
-        <v>6.344604383594206</v>
+        <v>6.344604383594149</v>
       </c>
       <c r="E4">
-        <v>10.75653536596757</v>
+        <v>10.75653536596756</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.7323110111645</v>
+        <v>32.73231101116442</v>
       </c>
       <c r="H4">
-        <v>27.8311100695651</v>
+        <v>27.83111006956502</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.07502341487866</v>
+        <v>15.07502341487865</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.11340795378854</v>
+        <v>15.11340795378858</v>
       </c>
       <c r="C5">
-        <v>14.4240117272935</v>
+        <v>14.4240117272934</v>
       </c>
       <c r="D5">
-        <v>6.211162608017353</v>
+        <v>6.211162608017338</v>
       </c>
       <c r="E5">
-        <v>10.57402904031066</v>
+        <v>10.57402904031061</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.27002352445327</v>
+        <v>32.27002352445319</v>
       </c>
       <c r="H5">
-        <v>27.49989340035018</v>
+        <v>27.49989340035008</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.74987995799211</v>
+        <v>14.74987995799212</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.08811851909314</v>
+        <v>15.08811851909316</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.05638828298809</v>
+        <v>15.05638828298816</v>
       </c>
       <c r="C6">
-        <v>14.36817707349083</v>
+        <v>14.36817707349072</v>
       </c>
       <c r="D6">
-        <v>6.191258563393716</v>
+        <v>6.191258563393726</v>
       </c>
       <c r="E6">
-        <v>10.54360272052039</v>
+        <v>10.54360272052034</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>32.19306864792807</v>
       </c>
       <c r="H6">
-        <v>27.44485160719816</v>
+        <v>27.44485160719809</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.69534239318683</v>
+        <v>14.69534239318684</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.0323246095004</v>
+        <v>15.03232460950045</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.44873727279442</v>
+        <v>15.44873727279449</v>
       </c>
       <c r="C7">
-        <v>14.75252373391427</v>
+        <v>14.75252373391417</v>
       </c>
       <c r="D7">
-        <v>6.342723507137451</v>
+        <v>6.342723507137518</v>
       </c>
       <c r="E7">
-        <v>10.75408222809544</v>
+        <v>10.75408222809547</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.72608956174274</v>
+        <v>32.72608956174285</v>
       </c>
       <c r="H7">
-        <v>27.8266462209418</v>
+        <v>27.82664622094189</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.0706750166648</v>
+        <v>15.07067501666481</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.41638010458899</v>
+        <v>15.41638010458898</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.09664214497129</v>
+        <v>17.0966421449712</v>
       </c>
       <c r="C8">
-        <v>16.37070887648272</v>
+        <v>16.37070887648255</v>
       </c>
       <c r="D8">
-        <v>7.025113894339846</v>
+        <v>7.025113894339823</v>
       </c>
       <c r="E8">
-        <v>11.66458713751828</v>
+        <v>11.66458713751822</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.04812691147966</v>
+        <v>35.04812691147962</v>
       </c>
       <c r="H8">
-        <v>29.50378566774857</v>
+        <v>29.50378566774855</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.64867265542474</v>
+        <v>16.64867265542465</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.03299258665623</v>
+        <v>17.03299258665619</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.04347121380088</v>
+        <v>20.04347121380083</v>
       </c>
       <c r="C9">
-        <v>19.28046875679883</v>
+        <v>19.28046875679868</v>
       </c>
       <c r="D9">
-        <v>8.247140562641393</v>
+        <v>8.247140562641292</v>
       </c>
       <c r="E9">
-        <v>13.38214463113349</v>
+        <v>13.38214463113346</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.48273517587607</v>
+        <v>39.48273517587591</v>
       </c>
       <c r="H9">
-        <v>32.75834454663871</v>
+        <v>32.75834454663861</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.47654689659104</v>
+        <v>19.47654689659095</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.93786313919983</v>
+        <v>19.93786313919972</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.05145409324626</v>
+        <v>22.05145409324621</v>
       </c>
       <c r="C10">
         <v>21.2756989958757</v>
       </c>
       <c r="D10">
-        <v>9.080963451937343</v>
+        <v>9.080963451937373</v>
       </c>
       <c r="E10">
-        <v>14.68980143385877</v>
+        <v>14.68980143385873</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.67059836712072</v>
+        <v>42.67059836712085</v>
       </c>
       <c r="H10">
-        <v>35.13035430154104</v>
+        <v>35.13035430154115</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.93514124296528</v>
+        <v>22.9351412429652</v>
       </c>
       <c r="C11">
-        <v>22.15720537665393</v>
+        <v>22.1572053766539</v>
       </c>
       <c r="D11">
-        <v>9.448163325658889</v>
+        <v>9.448163325658861</v>
       </c>
       <c r="E11">
-        <v>15.30867432877825</v>
+        <v>15.30867432877831</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.10889091366027</v>
+        <v>44.1088909136603</v>
       </c>
       <c r="H11">
-        <v>36.20767803998739</v>
+        <v>36.20767803998744</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.25901646972882</v>
+        <v>22.25901646972878</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.26591405280278</v>
+        <v>23.26591405280269</v>
       </c>
       <c r="C12">
-        <v>22.48772450130992</v>
+        <v>22.48772450130989</v>
       </c>
       <c r="D12">
-        <v>9.585643907656417</v>
+        <v>9.585643907656415</v>
       </c>
       <c r="E12">
-        <v>15.54100486785367</v>
+        <v>15.54100486785362</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.65230196111519</v>
+        <v>44.65230196111503</v>
       </c>
       <c r="H12">
-        <v>36.61573307411519</v>
+        <v>36.61573307411508</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.57778871051218</v>
+        <v>22.57778871051213</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.13534429048336</v>
+        <v>23.13534429048329</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.19484053087347</v>
+        <v>23.1948405308735</v>
       </c>
       <c r="C13">
-        <v>22.41667922720024</v>
+        <v>22.41667922720033</v>
       </c>
       <c r="D13">
-        <v>9.556101817041961</v>
+        <v>9.556101817041855</v>
       </c>
       <c r="E13">
-        <v>15.49105218454557</v>
+        <v>15.49105218454554</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.53531441005084</v>
+        <v>44.53531441005101</v>
       </c>
       <c r="H13">
-        <v>36.52783996305062</v>
+        <v>36.52783996305077</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.50928503763121</v>
+        <v>22.50928503763124</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.06457605894003</v>
+        <v>23.06457605894001</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.9624288581739</v>
+        <v>22.96242885817371</v>
       </c>
       <c r="C14">
-        <v>22.18446031936289</v>
+        <v>22.18446031936288</v>
       </c>
       <c r="D14">
-        <v>9.459504325532123</v>
+        <v>9.459504325532016</v>
       </c>
       <c r="E14">
-        <v>15.3278266646297</v>
+        <v>15.3278266646296</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.15361918400687</v>
+        <v>44.15361918400674</v>
       </c>
       <c r="H14">
-        <v>36.24124461203068</v>
+        <v>36.2412446120306</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.28531017302644</v>
+        <v>22.2853101730263</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.83324198948711</v>
+        <v>22.83324198948698</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.81958079299254</v>
+        <v>22.81958079299273</v>
       </c>
       <c r="C15">
-        <v>22.0418065563063</v>
+        <v>22.04180655630632</v>
       </c>
       <c r="D15">
-        <v>9.400136642978573</v>
+        <v>9.400136642978527</v>
       </c>
       <c r="E15">
-        <v>15.22759407240076</v>
+        <v>15.22759407240078</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.91967539559635</v>
+        <v>43.91967539559644</v>
       </c>
       <c r="H15">
         <v>36.06572161355327</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.14767289511356</v>
+        <v>22.14767289511373</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.69111624973826</v>
+        <v>22.69111624973838</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.99313864818925</v>
+        <v>21.99313864818934</v>
       </c>
       <c r="C16">
-        <v>21.21760307654721</v>
+        <v>21.21760307654725</v>
       </c>
       <c r="D16">
-        <v>9.056736457858742</v>
+        <v>9.056736457858653</v>
       </c>
       <c r="E16">
-        <v>14.64905345265592</v>
+        <v>14.64905345265599</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.57639967820936</v>
+        <v>42.57639967820941</v>
       </c>
       <c r="H16">
-        <v>35.05994046001092</v>
+        <v>35.05994046001096</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.35175058462854</v>
+        <v>21.35175058462863</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.86973927336207</v>
+        <v>21.86973927336215</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.47880058398385</v>
+        <v>21.47880058398383</v>
       </c>
       <c r="C17">
-        <v>20.70559893227642</v>
+        <v>20.70559893227668</v>
       </c>
       <c r="D17">
-        <v>8.843083932829794</v>
+        <v>8.84308393282987</v>
       </c>
       <c r="E17">
-        <v>14.29014775573017</v>
+        <v>14.29014775573016</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.74958064859565</v>
+        <v>41.74958064859572</v>
       </c>
       <c r="H17">
-        <v>34.44269020852507</v>
+        <v>34.44269020852516</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.85672372268828</v>
+        <v>20.85672372268837</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.35930626358116</v>
+        <v>21.35930626358122</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.1801378924095</v>
+        <v>21.18013789240952</v>
       </c>
       <c r="C18">
         <v>20.40861575030383</v>
       </c>
       <c r="D18">
-        <v>8.719045138736574</v>
+        <v>8.719045138736558</v>
       </c>
       <c r="E18">
-        <v>14.08214110081925</v>
+        <v>14.08214110081924</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.27285975105421</v>
+        <v>41.27285975105419</v>
       </c>
       <c r="H18">
-        <v>34.08747479753848</v>
+        <v>34.08747479753845</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.56938481328598</v>
+        <v>20.569384813286</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.06317256960143</v>
+        <v>21.06317256960144</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.07851821083563</v>
+        <v>21.07851821083554</v>
       </c>
       <c r="C19">
-        <v>20.30762122467302</v>
+        <v>20.30762122467305</v>
       </c>
       <c r="D19">
-        <v>8.6768451464126</v>
+        <v>8.676845146412555</v>
       </c>
       <c r="E19">
-        <v>14.01143376951447</v>
+        <v>14.0114337695145</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.11124009504778</v>
+        <v>41.11124009504762</v>
       </c>
       <c r="H19">
-        <v>33.96716409723135</v>
+        <v>33.96716409723123</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.47163639669186</v>
+        <v>20.47163639669182</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.96245686822941</v>
+        <v>20.96245686822936</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53384271484388</v>
+        <v>21.53384271484407</v>
       </c>
       <c r="C20">
-        <v>20.7603573864443</v>
+        <v>20.76035738644447</v>
       </c>
       <c r="D20">
-        <v>8.865945625617506</v>
+        <v>8.865945625617535</v>
       </c>
       <c r="E20">
-        <v>14.32851442596925</v>
+        <v>14.32851442596927</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.83771378111201</v>
+        <v>41.83771378111222</v>
       </c>
       <c r="H20">
-        <v>34.50841508593233</v>
+        <v>34.50841508593252</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.90968774690903</v>
+        <v>20.90968774690921</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.41390319853279</v>
+        <v>21.41390319853292</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.03079490882476</v>
+        <v>23.03079490882475</v>
       </c>
       <c r="C21">
-        <v>22.25275375617348</v>
+        <v>22.2527537561733</v>
       </c>
       <c r="D21">
         <v>9.487918462972269</v>
       </c>
       <c r="E21">
-        <v>15.37582182424915</v>
+        <v>15.37582182424914</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.26576133600258</v>
+        <v>44.26576133600242</v>
       </c>
       <c r="H21">
-        <v>36.32541861576251</v>
+        <v>36.32541861576239</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.35118916679382</v>
+        <v>22.35118916679372</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.90127847464073</v>
+        <v>22.90127847464066</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.98688307109954</v>
+        <v>23.98688307109951</v>
       </c>
       <c r="C22">
-        <v>23.20923177026762</v>
+        <v>23.20923177026781</v>
       </c>
       <c r="D22">
-        <v>9.885362098855738</v>
+        <v>9.885362098855692</v>
       </c>
       <c r="E22">
-        <v>16.04871024727047</v>
+        <v>16.04871024727044</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.84575732505211</v>
+        <v>45.8457573250522</v>
       </c>
       <c r="H22">
-        <v>37.51375355393181</v>
+        <v>37.51375355393189</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.27296212013703</v>
+        <v>23.27296212013702</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.47848122831583</v>
+        <v>23.47848122831574</v>
       </c>
       <c r="C23">
-        <v>22.70029364088566</v>
+        <v>22.70029364088574</v>
       </c>
       <c r="D23">
-        <v>9.674003316219187</v>
+        <v>9.674003316219114</v>
       </c>
       <c r="E23">
-        <v>15.69050729591499</v>
+        <v>15.69050729591488</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.00291034984054</v>
+        <v>45.00291034984046</v>
       </c>
       <c r="H23">
-        <v>36.87929289350193</v>
+        <v>36.87929289350188</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.78269862557221</v>
+        <v>22.78269862557218</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.34706654972661</v>
+        <v>23.34706654972651</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.50896742685178</v>
+        <v>21.50896742685172</v>
       </c>
       <c r="C24">
-        <v>20.73560930048691</v>
+        <v>20.73560930048685</v>
       </c>
       <c r="D24">
-        <v>8.855613626718473</v>
+        <v>8.855613626718485</v>
       </c>
       <c r="E24">
-        <v>14.31117407174368</v>
+        <v>14.31117407174364</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.79787309731869</v>
+        <v>41.79787309731856</v>
       </c>
       <c r="H24">
-        <v>34.47870198318906</v>
+        <v>34.47870198318894</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.88575128086798</v>
+        <v>20.88575128086789</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.38922830157678</v>
+        <v>21.38922830157671</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.27516821151045</v>
+        <v>19.27516821151052</v>
       </c>
       <c r="C25">
-        <v>18.51978591604919</v>
+        <v>18.51978591604911</v>
       </c>
       <c r="D25">
-        <v>7.928328954324829</v>
+        <v>7.928328954324869</v>
       </c>
       <c r="E25">
-        <v>12.92464456900658</v>
+        <v>12.92464456900655</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.29603212033096</v>
+        <v>38.29603212033082</v>
       </c>
       <c r="H25">
-        <v>31.88171638748455</v>
+        <v>31.88171638748442</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.17877069578234</v>
+        <v>19.17877069578232</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.52332639313086</v>
+        <v>17.52332639313075</v>
       </c>
       <c r="C2">
-        <v>16.79073150859089</v>
+        <v>16.79073150859077</v>
       </c>
       <c r="D2">
-        <v>7.201921846060465</v>
+        <v>7.201921846060482</v>
       </c>
       <c r="E2">
-        <v>11.90669091853328</v>
+        <v>11.90669091853326</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.66943394764283</v>
+        <v>35.66943394764287</v>
       </c>
       <c r="H2">
-        <v>29.9560083132446</v>
+        <v>29.95600831324465</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.0576570670821</v>
+        <v>17.05765706708196</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.45249326439362</v>
+        <v>17.45249326439352</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.26382955933994</v>
+        <v>16.26382955933992</v>
       </c>
       <c r="C3">
-        <v>15.55212778677252</v>
+        <v>15.55212778677258</v>
       </c>
       <c r="D3">
-        <v>6.680156141145721</v>
+        <v>6.680156141145677</v>
       </c>
       <c r="E3">
-        <v>11.1993397803798</v>
+        <v>11.19933978037979</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.85853124021019</v>
+        <v>33.85853124021018</v>
       </c>
       <c r="H3">
-        <v>28.64188659720756</v>
+        <v>28.64188659720757</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.85087857799719</v>
+        <v>15.8508785779972</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>16.215285661138</v>
+        <v>16.21528566113796</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.45328191738297</v>
+        <v>15.45328191738295</v>
       </c>
       <c r="C4">
-        <v>14.75697776632487</v>
+        <v>14.75697776632496</v>
       </c>
       <c r="D4">
-        <v>6.344604383594149</v>
+        <v>6.344604383594206</v>
       </c>
       <c r="E4">
-        <v>10.75653536596756</v>
+        <v>10.75653536596757</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.73231101116442</v>
+        <v>32.7323110111645</v>
       </c>
       <c r="H4">
-        <v>27.83111006956502</v>
+        <v>27.8311100695651</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.07502341487865</v>
+        <v>15.07502341487866</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.11340795378858</v>
+        <v>15.11340795378854</v>
       </c>
       <c r="C5">
-        <v>14.4240117272934</v>
+        <v>14.4240117272935</v>
       </c>
       <c r="D5">
-        <v>6.211162608017338</v>
+        <v>6.211162608017353</v>
       </c>
       <c r="E5">
-        <v>10.57402904031061</v>
+        <v>10.57402904031066</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.27002352445319</v>
+        <v>32.27002352445327</v>
       </c>
       <c r="H5">
-        <v>27.49989340035008</v>
+        <v>27.49989340035018</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14.74987995799212</v>
+        <v>14.74987995799211</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>15.08811851909316</v>
+        <v>15.08811851909314</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.05638828298816</v>
+        <v>15.05638828298809</v>
       </c>
       <c r="C6">
-        <v>14.36817707349072</v>
+        <v>14.36817707349083</v>
       </c>
       <c r="D6">
-        <v>6.191258563393726</v>
+        <v>6.191258563393716</v>
       </c>
       <c r="E6">
-        <v>10.54360272052034</v>
+        <v>10.54360272052039</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>32.19306864792807</v>
       </c>
       <c r="H6">
-        <v>27.44485160719809</v>
+        <v>27.44485160719816</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>14.69534239318684</v>
+        <v>14.69534239318683</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>15.03232460950045</v>
+        <v>15.0323246095004</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.44873727279449</v>
+        <v>15.44873727279442</v>
       </c>
       <c r="C7">
-        <v>14.75252373391417</v>
+        <v>14.75252373391427</v>
       </c>
       <c r="D7">
-        <v>6.342723507137518</v>
+        <v>6.342723507137451</v>
       </c>
       <c r="E7">
-        <v>10.75408222809547</v>
+        <v>10.75408222809544</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.72608956174285</v>
+        <v>32.72608956174274</v>
       </c>
       <c r="H7">
-        <v>27.82664622094189</v>
+        <v>27.8266462209418</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.07067501666481</v>
+        <v>15.0706750166648</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.41638010458898</v>
+        <v>15.41638010458899</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.0966421449712</v>
+        <v>17.09664214497129</v>
       </c>
       <c r="C8">
-        <v>16.37070887648255</v>
+        <v>16.37070887648272</v>
       </c>
       <c r="D8">
-        <v>7.025113894339823</v>
+        <v>7.025113894339846</v>
       </c>
       <c r="E8">
-        <v>11.66458713751822</v>
+        <v>11.66458713751828</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.04812691147962</v>
+        <v>35.04812691147966</v>
       </c>
       <c r="H8">
-        <v>29.50378566774855</v>
+        <v>29.50378566774857</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.64867265542465</v>
+        <v>16.64867265542474</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.03299258665619</v>
+        <v>17.03299258665623</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.04347121380083</v>
+        <v>20.04347121380088</v>
       </c>
       <c r="C9">
-        <v>19.28046875679868</v>
+        <v>19.28046875679883</v>
       </c>
       <c r="D9">
-        <v>8.247140562641292</v>
+        <v>8.247140562641393</v>
       </c>
       <c r="E9">
-        <v>13.38214463113346</v>
+        <v>13.38214463113349</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.48273517587591</v>
+        <v>39.48273517587607</v>
       </c>
       <c r="H9">
-        <v>32.75834454663861</v>
+        <v>32.75834454663871</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19.47654689659095</v>
+        <v>19.47654689659104</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>19.93786313919972</v>
+        <v>19.93786313919983</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.05145409324621</v>
+        <v>22.05145409324626</v>
       </c>
       <c r="C10">
         <v>21.2756989958757</v>
       </c>
       <c r="D10">
-        <v>9.080963451937373</v>
+        <v>9.080963451937343</v>
       </c>
       <c r="E10">
-        <v>14.68980143385873</v>
+        <v>14.68980143385877</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.67059836712085</v>
+        <v>42.67059836712072</v>
       </c>
       <c r="H10">
-        <v>35.13035430154115</v>
+        <v>35.13035430154104</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.9351412429652</v>
+        <v>22.93514124296528</v>
       </c>
       <c r="C11">
-        <v>22.1572053766539</v>
+        <v>22.15720537665393</v>
       </c>
       <c r="D11">
-        <v>9.448163325658861</v>
+        <v>9.448163325658889</v>
       </c>
       <c r="E11">
-        <v>15.30867432877831</v>
+        <v>15.30867432877825</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.1088909136603</v>
+        <v>44.10889091366027</v>
       </c>
       <c r="H11">
-        <v>36.20767803998744</v>
+        <v>36.20767803998739</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.25901646972878</v>
+        <v>22.25901646972882</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.26591405280269</v>
+        <v>23.26591405280278</v>
       </c>
       <c r="C12">
-        <v>22.48772450130989</v>
+        <v>22.48772450130992</v>
       </c>
       <c r="D12">
-        <v>9.585643907656415</v>
+        <v>9.585643907656417</v>
       </c>
       <c r="E12">
-        <v>15.54100486785362</v>
+        <v>15.54100486785367</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.65230196111503</v>
+        <v>44.65230196111519</v>
       </c>
       <c r="H12">
-        <v>36.61573307411508</v>
+        <v>36.61573307411519</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.57778871051213</v>
+        <v>22.57778871051218</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>23.13534429048329</v>
+        <v>23.13534429048336</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.1948405308735</v>
+        <v>23.19484053087347</v>
       </c>
       <c r="C13">
-        <v>22.41667922720033</v>
+        <v>22.41667922720024</v>
       </c>
       <c r="D13">
-        <v>9.556101817041855</v>
+        <v>9.556101817041961</v>
       </c>
       <c r="E13">
-        <v>15.49105218454554</v>
+        <v>15.49105218454557</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.53531441005101</v>
+        <v>44.53531441005084</v>
       </c>
       <c r="H13">
-        <v>36.52783996305077</v>
+        <v>36.52783996305062</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.50928503763124</v>
+        <v>22.50928503763121</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>23.06457605894001</v>
+        <v>23.06457605894003</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.96242885817371</v>
+        <v>22.9624288581739</v>
       </c>
       <c r="C14">
-        <v>22.18446031936288</v>
+        <v>22.18446031936289</v>
       </c>
       <c r="D14">
-        <v>9.459504325532016</v>
+        <v>9.459504325532123</v>
       </c>
       <c r="E14">
-        <v>15.3278266646296</v>
+        <v>15.3278266646297</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.15361918400674</v>
+        <v>44.15361918400687</v>
       </c>
       <c r="H14">
-        <v>36.2412446120306</v>
+        <v>36.24124461203068</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.2853101730263</v>
+        <v>22.28531017302644</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>22.83324198948698</v>
+        <v>22.83324198948711</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.81958079299273</v>
+        <v>22.81958079299254</v>
       </c>
       <c r="C15">
-        <v>22.04180655630632</v>
+        <v>22.0418065563063</v>
       </c>
       <c r="D15">
-        <v>9.400136642978527</v>
+        <v>9.400136642978573</v>
       </c>
       <c r="E15">
-        <v>15.22759407240078</v>
+        <v>15.22759407240076</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.91967539559644</v>
+        <v>43.91967539559635</v>
       </c>
       <c r="H15">
         <v>36.06572161355327</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.14767289511373</v>
+        <v>22.14767289511356</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>22.69111624973838</v>
+        <v>22.69111624973826</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.99313864818934</v>
+        <v>21.99313864818925</v>
       </c>
       <c r="C16">
-        <v>21.21760307654725</v>
+        <v>21.21760307654721</v>
       </c>
       <c r="D16">
-        <v>9.056736457858653</v>
+        <v>9.056736457858742</v>
       </c>
       <c r="E16">
-        <v>14.64905345265599</v>
+        <v>14.64905345265592</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.57639967820941</v>
+        <v>42.57639967820936</v>
       </c>
       <c r="H16">
-        <v>35.05994046001096</v>
+        <v>35.05994046001092</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.35175058462863</v>
+        <v>21.35175058462854</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>21.86973927336215</v>
+        <v>21.86973927336207</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.47880058398383</v>
+        <v>21.47880058398385</v>
       </c>
       <c r="C17">
-        <v>20.70559893227668</v>
+        <v>20.70559893227642</v>
       </c>
       <c r="D17">
-        <v>8.84308393282987</v>
+        <v>8.843083932829794</v>
       </c>
       <c r="E17">
-        <v>14.29014775573016</v>
+        <v>14.29014775573017</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.74958064859572</v>
+        <v>41.74958064859565</v>
       </c>
       <c r="H17">
-        <v>34.44269020852516</v>
+        <v>34.44269020852507</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>20.85672372268837</v>
+        <v>20.85672372268828</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>21.35930626358122</v>
+        <v>21.35930626358116</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.18013789240952</v>
+        <v>21.1801378924095</v>
       </c>
       <c r="C18">
         <v>20.40861575030383</v>
       </c>
       <c r="D18">
-        <v>8.719045138736558</v>
+        <v>8.719045138736574</v>
       </c>
       <c r="E18">
-        <v>14.08214110081924</v>
+        <v>14.08214110081925</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.27285975105419</v>
+        <v>41.27285975105421</v>
       </c>
       <c r="H18">
-        <v>34.08747479753845</v>
+        <v>34.08747479753848</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>20.569384813286</v>
+        <v>20.56938481328598</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>21.06317256960144</v>
+        <v>21.06317256960143</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.07851821083554</v>
+        <v>21.07851821083563</v>
       </c>
       <c r="C19">
-        <v>20.30762122467305</v>
+        <v>20.30762122467302</v>
       </c>
       <c r="D19">
-        <v>8.676845146412555</v>
+        <v>8.6768451464126</v>
       </c>
       <c r="E19">
-        <v>14.0114337695145</v>
+        <v>14.01143376951447</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.11124009504762</v>
+        <v>41.11124009504778</v>
       </c>
       <c r="H19">
-        <v>33.96716409723123</v>
+        <v>33.96716409723135</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>20.47163639669182</v>
+        <v>20.47163639669186</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>20.96245686822936</v>
+        <v>20.96245686822941</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53384271484407</v>
+        <v>21.53384271484388</v>
       </c>
       <c r="C20">
-        <v>20.76035738644447</v>
+        <v>20.7603573864443</v>
       </c>
       <c r="D20">
-        <v>8.865945625617535</v>
+        <v>8.865945625617506</v>
       </c>
       <c r="E20">
-        <v>14.32851442596927</v>
+        <v>14.32851442596925</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.83771378111222</v>
+        <v>41.83771378111201</v>
       </c>
       <c r="H20">
-        <v>34.50841508593252</v>
+        <v>34.50841508593233</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>20.90968774690921</v>
+        <v>20.90968774690903</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>21.41390319853292</v>
+        <v>21.41390319853279</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.03079490882475</v>
+        <v>23.03079490882476</v>
       </c>
       <c r="C21">
-        <v>22.2527537561733</v>
+        <v>22.25275375617348</v>
       </c>
       <c r="D21">
         <v>9.487918462972269</v>
       </c>
       <c r="E21">
-        <v>15.37582182424914</v>
+        <v>15.37582182424915</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.26576133600242</v>
+        <v>44.26576133600258</v>
       </c>
       <c r="H21">
-        <v>36.32541861576239</v>
+        <v>36.32541861576251</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.35118916679372</v>
+        <v>22.35118916679382</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>22.90127847464066</v>
+        <v>22.90127847464073</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.98688307109951</v>
+        <v>23.98688307109954</v>
       </c>
       <c r="C22">
-        <v>23.20923177026781</v>
+        <v>23.20923177026762</v>
       </c>
       <c r="D22">
-        <v>9.885362098855692</v>
+        <v>9.885362098855738</v>
       </c>
       <c r="E22">
-        <v>16.04871024727044</v>
+        <v>16.04871024727047</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.8457573250522</v>
+        <v>45.84575732505211</v>
       </c>
       <c r="H22">
-        <v>37.51375355393189</v>
+        <v>37.51375355393181</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.27296212013702</v>
+        <v>23.27296212013703</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.47848122831574</v>
+        <v>23.47848122831583</v>
       </c>
       <c r="C23">
-        <v>22.70029364088574</v>
+        <v>22.70029364088566</v>
       </c>
       <c r="D23">
-        <v>9.674003316219114</v>
+        <v>9.674003316219187</v>
       </c>
       <c r="E23">
-        <v>15.69050729591488</v>
+        <v>15.69050729591499</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.00291034984046</v>
+        <v>45.00291034984054</v>
       </c>
       <c r="H23">
-        <v>36.87929289350188</v>
+        <v>36.87929289350193</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.78269862557218</v>
+        <v>22.78269862557221</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>23.34706654972651</v>
+        <v>23.34706654972661</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.50896742685172</v>
+        <v>21.50896742685178</v>
       </c>
       <c r="C24">
-        <v>20.73560930048685</v>
+        <v>20.73560930048691</v>
       </c>
       <c r="D24">
-        <v>8.855613626718485</v>
+        <v>8.855613626718473</v>
       </c>
       <c r="E24">
-        <v>14.31117407174364</v>
+        <v>14.31117407174368</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.79787309731856</v>
+        <v>41.79787309731869</v>
       </c>
       <c r="H24">
-        <v>34.47870198318894</v>
+        <v>34.47870198318906</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>20.88575128086789</v>
+        <v>20.88575128086798</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>21.38922830157671</v>
+        <v>21.38922830157678</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.27516821151052</v>
+        <v>19.27516821151045</v>
       </c>
       <c r="C25">
-        <v>18.51978591604911</v>
+        <v>18.51978591604919</v>
       </c>
       <c r="D25">
-        <v>7.928328954324869</v>
+        <v>7.928328954324829</v>
       </c>
       <c r="E25">
-        <v>12.92464456900655</v>
+        <v>12.92464456900658</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.29603212033082</v>
+        <v>38.29603212033096</v>
       </c>
       <c r="H25">
-        <v>31.88171638748442</v>
+        <v>31.88171638748455</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>19.17877069578232</v>
+        <v>19.17877069578234</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.52332639313075</v>
+        <v>17.52303518460635</v>
       </c>
       <c r="C2">
-        <v>16.79073150859077</v>
+        <v>16.78148741282878</v>
       </c>
       <c r="D2">
-        <v>7.201921846060482</v>
+        <v>7.201784270932691</v>
       </c>
       <c r="E2">
-        <v>11.90669091853326</v>
+        <v>11.9074381591352</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.66943394764287</v>
+        <v>34.64363187635534</v>
       </c>
       <c r="H2">
-        <v>29.95600831324465</v>
+        <v>35.70916299346942</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>29.91693323437617</v>
       </c>
       <c r="J2">
-        <v>17.05765706708196</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.05457650490937</v>
       </c>
       <c r="L2">
-        <v>17.45249326439352</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>17.45095536607949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.26382955933992</v>
+        <v>16.26382941457244</v>
       </c>
       <c r="C3">
-        <v>15.55212778677258</v>
+        <v>15.54368768977218</v>
       </c>
       <c r="D3">
-        <v>6.680156141145677</v>
+        <v>6.680070088991384</v>
       </c>
       <c r="E3">
-        <v>11.19933978037979</v>
+        <v>11.20011085048471</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.85853124021018</v>
+        <v>32.62015361159128</v>
       </c>
       <c r="H3">
-        <v>28.64188659720757</v>
+        <v>33.89685822165065</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>28.60580466698535</v>
       </c>
       <c r="J3">
-        <v>15.8508785779972</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.84827918690373</v>
       </c>
       <c r="L3">
-        <v>16.21528566113796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>16.21402115094035</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.45328191738295</v>
+        <v>15.45345018263407</v>
       </c>
       <c r="C4">
-        <v>14.75697776632496</v>
+        <v>14.7490356973104</v>
       </c>
       <c r="D4">
-        <v>6.344604383594206</v>
+        <v>6.344546545676106</v>
       </c>
       <c r="E4">
-        <v>10.75653536596757</v>
+        <v>10.75732393463662</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>32.7323110111645</v>
+        <v>31.34932800286063</v>
       </c>
       <c r="H4">
-        <v>27.8311100695651</v>
+        <v>32.76981985855705</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>27.79694699344737</v>
       </c>
       <c r="J4">
-        <v>15.07502341487866</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.07271849362042</v>
       </c>
       <c r="L4">
-        <v>15.42083060914584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.41972962514618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.11340795378854</v>
+        <v>15.11364266920419</v>
       </c>
       <c r="C5">
-        <v>14.4240117272935</v>
+        <v>14.41627408291239</v>
       </c>
       <c r="D5">
-        <v>6.211162608017353</v>
+        <v>6.21112911544985</v>
       </c>
       <c r="E5">
-        <v>10.57402904031066</v>
+        <v>10.57482570062464</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.27002352445327</v>
+        <v>30.82452697177684</v>
       </c>
       <c r="H5">
-        <v>27.49989340035018</v>
+        <v>32.3072107602627</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>27.46653254476186</v>
       </c>
       <c r="J5">
-        <v>14.74987995799211</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.74769527263993</v>
       </c>
       <c r="L5">
-        <v>15.08811851909314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>15.08708345965311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.05638828298809</v>
+        <v>15.05663391197257</v>
       </c>
       <c r="C6">
-        <v>14.36817707349083</v>
+        <v>14.3604734721251</v>
       </c>
       <c r="D6">
-        <v>6.191258563393716</v>
+        <v>6.191226421243623</v>
       </c>
       <c r="E6">
-        <v>10.54360272052039</v>
+        <v>10.54440078925643</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.19306864792807</v>
+        <v>30.7369743500614</v>
       </c>
       <c r="H6">
-        <v>27.44485160719816</v>
+        <v>32.23020322308895</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27.41162517570278</v>
       </c>
       <c r="J6">
-        <v>14.69534239318683</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.69317770063864</v>
       </c>
       <c r="L6">
-        <v>15.0323246095004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>15.03130046398952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.44873727279442</v>
+        <v>15.4489064425261</v>
       </c>
       <c r="C7">
-        <v>14.75252373391427</v>
+        <v>14.74458441543569</v>
       </c>
       <c r="D7">
-        <v>6.342723507137451</v>
+        <v>6.342665817138752</v>
       </c>
       <c r="E7">
-        <v>10.75408222809544</v>
+        <v>10.75487090169288</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32.72608956174274</v>
+        <v>31.34227803463603</v>
       </c>
       <c r="H7">
-        <v>27.8266462209418</v>
+        <v>32.76359402265776</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>27.7924938821097</v>
       </c>
       <c r="J7">
-        <v>15.0706750166648</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.06837171538014</v>
       </c>
       <c r="L7">
-        <v>15.41638010458899</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.41528001209021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.09664214497129</v>
+        <v>17.09645369906888</v>
       </c>
       <c r="C8">
-        <v>16.37070887648272</v>
+        <v>16.36174134481463</v>
       </c>
       <c r="D8">
-        <v>7.025113894339846</v>
+        <v>7.024994871572583</v>
       </c>
       <c r="E8">
-        <v>11.66458713751828</v>
+        <v>11.66534214806981</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.04812691147966</v>
+        <v>33.95191889347241</v>
       </c>
       <c r="H8">
-        <v>29.50378566774857</v>
+        <v>35.08736426614269</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>29.46572582362131</v>
       </c>
       <c r="J8">
-        <v>16.64867265542474</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.64575850496275</v>
       </c>
       <c r="L8">
-        <v>17.03299258665623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>17.03155009175519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.04347121380088</v>
+        <v>20.04247787530385</v>
       </c>
       <c r="C9">
-        <v>19.28046875679883</v>
+        <v>19.26949780735757</v>
       </c>
       <c r="D9">
-        <v>8.247140562641393</v>
+        <v>8.246867679092682</v>
       </c>
       <c r="E9">
-        <v>13.38214463113349</v>
+        <v>13.38284471929804</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.48273517587607</v>
+        <v>38.84161672698065</v>
       </c>
       <c r="H9">
-        <v>32.75834454663871</v>
+        <v>39.52566627665381</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>32.71325548501867</v>
       </c>
       <c r="J9">
-        <v>19.47654689659104</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>19.47240287687603</v>
       </c>
       <c r="L9">
-        <v>19.93786313919983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>19.93569524608332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.05145409324626</v>
+        <v>22.04976930574762</v>
       </c>
       <c r="C10">
-        <v>21.2756989958757</v>
+        <v>21.26322502772022</v>
       </c>
       <c r="D10">
-        <v>9.080963451937343</v>
+        <v>9.080545913094426</v>
       </c>
       <c r="E10">
-        <v>14.68980143385877</v>
+        <v>14.69085113688419</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.67059836712072</v>
+        <v>42.30203217140883</v>
       </c>
       <c r="H10">
-        <v>35.13035430154104</v>
+        <v>42.71636778342935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>35.08045244746271</v>
       </c>
       <c r="J10">
-        <v>21.40789179481601</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>21.40278505659818</v>
       </c>
       <c r="L10">
-        <v>21.92764817283238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21.92488164664692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.93514124296528</v>
+        <v>22.93310945642319</v>
       </c>
       <c r="C11">
-        <v>22.15720537665393</v>
+        <v>22.14402911276859</v>
       </c>
       <c r="D11">
-        <v>9.448163325658889</v>
+        <v>9.447669800597581</v>
       </c>
       <c r="E11">
-        <v>15.30867432877825</v>
+        <v>15.30971780225558</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.10889091366027</v>
+        <v>43.85198702159992</v>
       </c>
       <c r="H11">
-        <v>36.20767803998739</v>
+        <v>44.15596720744824</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>36.15564918744919</v>
       </c>
       <c r="J11">
-        <v>22.25901646972882</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.25344776809096</v>
       </c>
       <c r="L11">
-        <v>22.80608883679144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>22.80302619073346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.26591405280278</v>
+        <v>23.26374504786228</v>
       </c>
       <c r="C12">
-        <v>22.48772450130992</v>
+        <v>22.47427833804527</v>
       </c>
       <c r="D12">
-        <v>9.585643907656417</v>
+        <v>9.585119780923304</v>
       </c>
       <c r="E12">
-        <v>15.54100486785367</v>
+        <v>15.54204357762245</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.65230196111519</v>
+        <v>44.43600202272259</v>
       </c>
       <c r="H12">
-        <v>36.61573307411519</v>
+        <v>44.69987441368397</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>36.56290610781682</v>
       </c>
       <c r="J12">
-        <v>22.57778871051218</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.57204043733779</v>
       </c>
       <c r="L12">
-        <v>23.13534429048336</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>23.13216505610308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.19484053087347</v>
+        <v>23.19270135830252</v>
       </c>
       <c r="C13">
-        <v>22.41667922720024</v>
+        <v>22.40329139134471</v>
       </c>
       <c r="D13">
-        <v>9.556101817041961</v>
+        <v>9.555584368954303</v>
       </c>
       <c r="E13">
-        <v>15.49105218454557</v>
+        <v>15.49209203709871</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.53531441005084</v>
+        <v>44.31034293948977</v>
       </c>
       <c r="H13">
-        <v>36.52783996305062</v>
+        <v>44.58277996604297</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>36.47518458949612</v>
       </c>
       <c r="J13">
-        <v>22.50928503763121</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.50357566628285</v>
       </c>
       <c r="L13">
-        <v>23.06457605894003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>23.06142215117157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.9624288581739</v>
+        <v>22.96038590672088</v>
       </c>
       <c r="C14">
-        <v>22.18446031936289</v>
+        <v>22.17126193843657</v>
       </c>
       <c r="D14">
-        <v>9.459504325532123</v>
+        <v>9.45900832187669</v>
       </c>
       <c r="E14">
-        <v>15.3278266646297</v>
+        <v>15.32886979789599</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.15361918400687</v>
+        <v>43.90008894790726</v>
       </c>
       <c r="H14">
-        <v>36.24124461203068</v>
+        <v>44.20073627752621</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>36.18914996216417</v>
       </c>
       <c r="J14">
-        <v>22.28531017302644</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.27972679856038</v>
       </c>
       <c r="L14">
-        <v>22.83324198948711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>22.8301698477056</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.81958079299254</v>
+        <v>22.81759598351067</v>
       </c>
       <c r="C15">
-        <v>22.0418065563063</v>
+        <v>22.0287236634879</v>
       </c>
       <c r="D15">
-        <v>9.400136642978573</v>
+        <v>9.399653524385354</v>
       </c>
       <c r="E15">
-        <v>15.22759407240076</v>
+        <v>15.22863888408706</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.91967539559635</v>
+        <v>43.64843602381254</v>
       </c>
       <c r="H15">
-        <v>36.06572161355327</v>
+        <v>43.96657918086117</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>36.01397132217174</v>
       </c>
       <c r="J15">
-        <v>22.14767289511356</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.14216605406417</v>
       </c>
       <c r="L15">
-        <v>22.69111624973826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>22.68809357708685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.99313864818925</v>
+        <v>21.99147579226121</v>
       </c>
       <c r="C16">
-        <v>21.21760307654721</v>
+        <v>21.2051745283682</v>
       </c>
       <c r="D16">
-        <v>9.056736457858742</v>
+        <v>9.056323650910066</v>
       </c>
       <c r="E16">
-        <v>14.64905345265592</v>
+        <v>14.65010325788602</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.57639967820936</v>
+        <v>42.20029595996787</v>
       </c>
       <c r="H16">
-        <v>35.05994046001092</v>
+        <v>42.62208392044982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>35.01017873549345</v>
       </c>
       <c r="J16">
-        <v>21.35175058462854</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.34667345818702</v>
       </c>
       <c r="L16">
-        <v>21.86973927336207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>21.86699153760057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.47880058398385</v>
+        <v>21.47732618279213</v>
       </c>
       <c r="C17">
-        <v>20.70559893227642</v>
+        <v>20.69356622471794</v>
       </c>
       <c r="D17">
-        <v>8.843083932829794</v>
+        <v>8.842711419720763</v>
       </c>
       <c r="E17">
-        <v>14.29014775573017</v>
+        <v>14.29119694269861</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.74958064859565</v>
+        <v>41.30605500412618</v>
       </c>
       <c r="H17">
-        <v>34.44269020852507</v>
+        <v>41.79452008356962</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>34.39416335051097</v>
       </c>
       <c r="J17">
-        <v>20.85672372268828</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>20.85190329658393</v>
       </c>
       <c r="L17">
-        <v>21.35930626358116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>21.35672043543256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.1801378924095</v>
+        <v>21.17876891260774</v>
       </c>
       <c r="C18">
-        <v>20.40861575030383</v>
+        <v>20.39680906489253</v>
       </c>
       <c r="D18">
-        <v>8.719045138736574</v>
+        <v>8.718694869387249</v>
       </c>
       <c r="E18">
-        <v>14.08214110081925</v>
+        <v>14.08318873941187</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.27285975105421</v>
+        <v>40.78938933236688</v>
       </c>
       <c r="H18">
-        <v>34.08747479753848</v>
+        <v>41.31737233271132</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>34.03966419390928</v>
       </c>
       <c r="J18">
-        <v>20.56938481328598</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>20.56470985754027</v>
       </c>
       <c r="L18">
-        <v>21.06317256960143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>21.06067770035075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.07851821083563</v>
+        <v>21.07718444532436</v>
       </c>
       <c r="C19">
-        <v>20.30762122467302</v>
+        <v>20.29589081667103</v>
       </c>
       <c r="D19">
-        <v>8.6768451464126</v>
+        <v>8.676502258017601</v>
       </c>
       <c r="E19">
-        <v>14.01143376951447</v>
+        <v>14.01248069284423</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.11124009504778</v>
+        <v>40.6140421008017</v>
       </c>
       <c r="H19">
-        <v>33.96716409723135</v>
+        <v>41.15560844514033</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>33.91959707691555</v>
       </c>
       <c r="J19">
-        <v>20.47163639669186</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.46701035282979</v>
       </c>
       <c r="L19">
-        <v>20.96245686822941</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>20.95999245174146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53384271484388</v>
+        <v>21.53234856751863</v>
       </c>
       <c r="C20">
-        <v>20.7603573864443</v>
+        <v>20.74828272061782</v>
       </c>
       <c r="D20">
-        <v>8.865945625617506</v>
+        <v>8.865568921996804</v>
       </c>
       <c r="E20">
-        <v>14.32851442596925</v>
+        <v>14.32956380557011</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.83771378111201</v>
+        <v>41.40148527280859</v>
       </c>
       <c r="H20">
-        <v>34.50841508593233</v>
+        <v>41.88273234961049</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>34.45975616458977</v>
       </c>
       <c r="J20">
-        <v>20.90968774690903</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.90484022767425</v>
       </c>
       <c r="L20">
-        <v>21.41390319853279</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>21.41130036594256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.03079490882476</v>
+        <v>23.02872386327345</v>
       </c>
       <c r="C21">
-        <v>22.25275375617348</v>
+        <v>22.23949984688062</v>
       </c>
       <c r="D21">
-        <v>9.487918462972269</v>
+        <v>9.487416213502534</v>
       </c>
       <c r="E21">
-        <v>15.37582182424915</v>
+        <v>15.37686406403633</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.26576133600258</v>
+        <v>44.02066436515127</v>
       </c>
       <c r="H21">
-        <v>36.32541861576251</v>
+        <v>44.31298075513736</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>36.27315908396325</v>
       </c>
       <c r="J21">
-        <v>22.35118916679382</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.34556892055019</v>
       </c>
       <c r="L21">
-        <v>22.90127847464073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>22.89818244655535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.98688307109954</v>
+        <v>23.98440033934414</v>
       </c>
       <c r="C22">
-        <v>23.20923177026762</v>
+        <v>23.1951832643151</v>
       </c>
       <c r="D22">
-        <v>9.885362098855738</v>
+        <v>9.884766907996521</v>
       </c>
       <c r="E22">
-        <v>16.04871024727047</v>
+        <v>16.04973344895781</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.84575732505211</v>
+        <v>45.71582567901476</v>
       </c>
       <c r="H22">
-        <v>37.51375355393181</v>
+        <v>45.89442200962816</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.45918246379466</v>
       </c>
       <c r="J22">
-        <v>23.27296212013703</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.2668090741294</v>
       </c>
       <c r="L22">
-        <v>23.85386542332896</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>23.85042042721397</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.47848122831583</v>
+        <v>23.47622184530932</v>
       </c>
       <c r="C23">
-        <v>22.70029364088566</v>
+        <v>22.68667192285722</v>
       </c>
       <c r="D23">
-        <v>9.674003316219187</v>
+        <v>9.673458871192391</v>
       </c>
       <c r="E23">
-        <v>15.69050729591499</v>
+        <v>15.69154218627367</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.00291034984054</v>
+        <v>44.81237445767617</v>
       </c>
       <c r="H23">
-        <v>36.87929289350193</v>
+        <v>45.05080339147462</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>36.8259523769817</v>
       </c>
       <c r="J23">
-        <v>22.78269862557221</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.77683295035487</v>
       </c>
       <c r="L23">
-        <v>23.34706654972661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>23.34381065154212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.50896742685178</v>
+        <v>21.50748221577667</v>
       </c>
       <c r="C24">
-        <v>20.73560930048691</v>
+        <v>20.72355360873144</v>
       </c>
       <c r="D24">
-        <v>8.855613626718473</v>
+        <v>8.855238820472646</v>
       </c>
       <c r="E24">
-        <v>14.31117407174368</v>
+        <v>14.31222336793403</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.79787309731869</v>
+        <v>41.3583492453843</v>
       </c>
       <c r="H24">
-        <v>34.47870198318906</v>
+        <v>41.84285588532307</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>34.43010274788621</v>
       </c>
       <c r="J24">
-        <v>20.88575128086798</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.88091601692307</v>
       </c>
       <c r="L24">
-        <v>21.38922830157678</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>21.38663316323523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.27516821151045</v>
+        <v>19.27440710974472</v>
       </c>
       <c r="C25">
-        <v>18.51978591604919</v>
+        <v>18.50935906585528</v>
       </c>
       <c r="D25">
-        <v>7.928328954324829</v>
+        <v>7.928102303200779</v>
       </c>
       <c r="E25">
-        <v>12.92464456900658</v>
+        <v>12.92536006945576</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.29603212033096</v>
+        <v>37.54301264181343</v>
       </c>
       <c r="H25">
-        <v>31.88171638748455</v>
+        <v>38.3379382166349</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>31.83846358247368</v>
       </c>
       <c r="J25">
-        <v>18.7385191046057</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.73471492804518</v>
       </c>
       <c r="L25">
-        <v>19.17877069578234</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>19.17680784124343</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.52303518460635</v>
+        <v>17.0793802213423</v>
       </c>
       <c r="C2">
-        <v>16.78148741282878</v>
+        <v>10.5156163163979</v>
       </c>
       <c r="D2">
-        <v>7.201784270932691</v>
+        <v>10.48016533570118</v>
       </c>
       <c r="E2">
-        <v>11.9074381591352</v>
+        <v>10.23089273956393</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.64363187635534</v>
+        <v>2.13153757003631</v>
       </c>
       <c r="H2">
-        <v>35.70916299346942</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>29.91693323437617</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.194670500121861</v>
       </c>
       <c r="K2">
-        <v>17.05457650490937</v>
+        <v>14.54635219082999</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.45095536607949</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.7368257089972</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>65.28739594487088</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.26382941457244</v>
+        <v>16.04890944289091</v>
       </c>
       <c r="C3">
-        <v>15.54368768977218</v>
+        <v>9.677473610236751</v>
       </c>
       <c r="D3">
-        <v>6.680070088991384</v>
+        <v>10.14963605359042</v>
       </c>
       <c r="E3">
-        <v>11.20011085048471</v>
+        <v>10.00603057407627</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>32.62015361159128</v>
+        <v>2.147247226155803</v>
       </c>
       <c r="H3">
-        <v>33.89685822165065</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>28.60580466698535</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.20540048909645</v>
       </c>
       <c r="K3">
-        <v>15.84827918690373</v>
+        <v>13.5598485580785</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.21402115094035</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.24252153353538</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>61.71367757502437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.45345018263407</v>
+        <v>15.41469669190006</v>
       </c>
       <c r="C4">
-        <v>14.7490356973104</v>
+        <v>9.151631320759826</v>
       </c>
       <c r="D4">
-        <v>6.344546545676106</v>
+        <v>9.95128541633332</v>
       </c>
       <c r="E4">
-        <v>10.75732393463662</v>
+        <v>9.873139412049149</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.34932800286063</v>
+        <v>2.156998036436145</v>
       </c>
       <c r="H4">
-        <v>32.76981985855705</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>27.79694699344737</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.213265787279516</v>
       </c>
       <c r="K4">
-        <v>15.07271849362042</v>
+        <v>13.08335044442189</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.41972962514618</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.95234409018118</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>59.46852936898467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.11364266920419</v>
+        <v>15.1560075294594</v>
       </c>
       <c r="C5">
-        <v>14.41627408291239</v>
+        <v>8.934398587239007</v>
       </c>
       <c r="D5">
-        <v>6.21112911544985</v>
+        <v>9.871606106398454</v>
       </c>
       <c r="E5">
-        <v>10.57482570062464</v>
+        <v>9.82024480430786</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>30.82452697177684</v>
+        <v>2.161004989126254</v>
       </c>
       <c r="H5">
-        <v>32.3072107602627</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>27.46653254476186</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.216784135901921</v>
       </c>
       <c r="K5">
-        <v>14.74769527263993</v>
+        <v>12.89087510315205</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.08708345965311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.83740495045865</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>58.54082546433437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.05663391197257</v>
+        <v>15.11304358982404</v>
       </c>
       <c r="C6">
-        <v>14.3604734721251</v>
+        <v>8.898146908863236</v>
       </c>
       <c r="D6">
-        <v>6.191226421243623</v>
+        <v>9.858444963571941</v>
       </c>
       <c r="E6">
-        <v>10.54440078925643</v>
+        <v>9.811536683069527</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30.7369743500614</v>
+        <v>2.161672548889787</v>
       </c>
       <c r="H6">
-        <v>32.23020322308895</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>27.41162517570278</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.217387052825377</v>
       </c>
       <c r="K6">
-        <v>14.69317770063864</v>
+        <v>12.85902174593546</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.03130046398952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.81851847624425</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>58.38601296099719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.4489064425261</v>
+        <v>15.41120865050787</v>
       </c>
       <c r="C7">
-        <v>14.74458441543569</v>
+        <v>9.14871369443806</v>
       </c>
       <c r="D7">
-        <v>6.342665817138752</v>
+        <v>9.950206174209077</v>
       </c>
       <c r="E7">
-        <v>10.75487090169288</v>
+        <v>9.87242100675156</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.34227803463603</v>
+        <v>2.1570519316032</v>
       </c>
       <c r="H7">
-        <v>32.76359402265776</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>27.7924938821097</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.213311978834363</v>
       </c>
       <c r="K7">
-        <v>15.06837171538014</v>
+        <v>13.08074758161303</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.41528001209021</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.9507806174293</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>59.45606964089504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.09645369906888</v>
+        <v>16.72443433485024</v>
       </c>
       <c r="C8">
-        <v>16.36174134481463</v>
+        <v>10.22885458731912</v>
       </c>
       <c r="D8">
-        <v>7.024994871572583</v>
+        <v>10.36523720424622</v>
       </c>
       <c r="E8">
-        <v>11.66534214806981</v>
+        <v>10.15225852327628</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>33.95191889347241</v>
+        <v>2.136936949669083</v>
       </c>
       <c r="H8">
-        <v>35.08736426614269</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>29.46572582362131</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.198100102241686</v>
       </c>
       <c r="K8">
-        <v>16.64575850496275</v>
+        <v>14.16157406809306</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.03155009175519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.56359224849622</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>64.06566769517242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.04247787530385</v>
+        <v>19.69588667825782</v>
       </c>
       <c r="C9">
-        <v>19.26949780735757</v>
+        <v>12.26766837484478</v>
       </c>
       <c r="D9">
-        <v>8.246867679092682</v>
+        <v>11.21679000390806</v>
       </c>
       <c r="E9">
-        <v>13.38284471929804</v>
+        <v>10.744517174782</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.84161672698065</v>
+        <v>2.097957495149406</v>
       </c>
       <c r="H9">
-        <v>39.52566627665381</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>32.71325548501867</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.178810952565456</v>
       </c>
       <c r="K9">
-        <v>19.47240287687603</v>
+        <v>16.86493862931964</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.93569524608332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.87445851008953</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>72.71412649241167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.04976930574762</v>
+        <v>21.86100762927668</v>
       </c>
       <c r="C10">
-        <v>21.26322502772022</v>
+        <v>13.73695744227201</v>
       </c>
       <c r="D10">
-        <v>9.080545913094426</v>
+        <v>11.86906856143837</v>
       </c>
       <c r="E10">
-        <v>14.69085113688419</v>
+        <v>11.21078069442135</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.30203217140883</v>
+        <v>2.068991506617984</v>
       </c>
       <c r="H10">
-        <v>42.71636778342935</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>35.08045244746271</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.171730677185383</v>
       </c>
       <c r="K10">
-        <v>21.40278505659818</v>
+        <v>18.77172186238321</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.92488164664692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.99726221370424</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>78.86795064004008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.93310945642319</v>
+        <v>22.83582564539565</v>
       </c>
       <c r="C11">
-        <v>22.14402911276859</v>
+        <v>14.40558702879206</v>
       </c>
       <c r="D11">
-        <v>9.447669800597581</v>
+        <v>12.17314011742077</v>
       </c>
       <c r="E11">
-        <v>15.30971780225558</v>
+        <v>11.43115847599856</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>43.85198702159992</v>
+        <v>2.055569160864072</v>
       </c>
       <c r="H11">
-        <v>44.15596720744824</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>36.15564918744919</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.170232937478371</v>
       </c>
       <c r="K11">
-        <v>22.25344776809096</v>
+        <v>19.6292238824364</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.80302619073346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17.74995279429669</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>81.63899030638811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.26374504786228</v>
+        <v>23.20433267506733</v>
       </c>
       <c r="C12">
-        <v>22.47427833804527</v>
+        <v>14.65953410754608</v>
       </c>
       <c r="D12">
-        <v>9.585119780923304</v>
+        <v>12.28953796239374</v>
       </c>
       <c r="E12">
-        <v>15.54204357762245</v>
+        <v>11.51597286681058</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.43600202272259</v>
+        <v>2.050432760446095</v>
       </c>
       <c r="H12">
-        <v>44.69987441368397</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>36.56290610781682</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.169932519803991</v>
       </c>
       <c r="K12">
-        <v>22.57204043733779</v>
+        <v>19.95330515501493</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.13216505610308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.03386491630877</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>82.68602777989825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.19270135830252</v>
+        <v>23.12498104355193</v>
       </c>
       <c r="C13">
-        <v>22.40329139134471</v>
+        <v>14.60479525055529</v>
       </c>
       <c r="D13">
-        <v>9.555584368954303</v>
+        <v>12.26441002776192</v>
       </c>
       <c r="E13">
-        <v>15.49209203709871</v>
+        <v>11.49764269362903</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.31034293948977</v>
+        <v>2.051541698258363</v>
       </c>
       <c r="H13">
-        <v>44.58277996604297</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>36.47518458949612</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.169985013953911</v>
       </c>
       <c r="K13">
-        <v>22.50357566628285</v>
+        <v>19.88352218578044</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.06142215117157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17.9727572987083</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>82.46059748723002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.96038590672088</v>
+        <v>22.86615023577829</v>
       </c>
       <c r="C14">
-        <v>22.17126193843657</v>
+        <v>14.42645958965147</v>
       </c>
       <c r="D14">
-        <v>9.45900832187669</v>
+        <v>12.18268976587293</v>
       </c>
       <c r="E14">
-        <v>15.32886979789599</v>
+        <v>11.43810773904725</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>43.90008894790726</v>
+        <v>2.055147780864417</v>
       </c>
       <c r="H14">
-        <v>44.20073627752621</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>36.18914996216417</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.170202753944467</v>
       </c>
       <c r="K14">
-        <v>22.27972679856038</v>
+        <v>19.6558938153424</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.8301698477056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17.77332861948574</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>81.72516460333466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.81759598351067</v>
+        <v>22.70755399577742</v>
       </c>
       <c r="C15">
-        <v>22.0287236634879</v>
+        <v>14.3173460781302</v>
       </c>
       <c r="D15">
-        <v>9.399653524385354</v>
+        <v>12.13280385113549</v>
       </c>
       <c r="E15">
-        <v>15.22863888408706</v>
+        <v>11.40182422461361</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.64843602381254</v>
+        <v>2.057349010944064</v>
       </c>
       <c r="H15">
-        <v>43.96657918086117</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>36.01397132217174</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.170371490318264</v>
       </c>
       <c r="K15">
-        <v>22.14216605406417</v>
+        <v>19.51640855492903</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.68809357708685</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17.65104880815305</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>81.27445372803577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.99147579226121</v>
+        <v>21.79716291422076</v>
       </c>
       <c r="C16">
-        <v>21.2051745283682</v>
+        <v>13.69332309860868</v>
       </c>
       <c r="D16">
-        <v>9.056323650910066</v>
+        <v>11.84935986538577</v>
       </c>
       <c r="E16">
-        <v>14.65010325788602</v>
+        <v>11.19655860001956</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.20029595996787</v>
+        <v>2.069862267673193</v>
       </c>
       <c r="H16">
-        <v>42.62208392044982</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>35.01017873549345</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.171864770540878</v>
       </c>
       <c r="K16">
-        <v>21.34667345818702</v>
+        <v>18.71554611669615</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>21.86699153760057</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.94787833372457</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>78.68642680732371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.47732618279213</v>
+        <v>21.23659867086989</v>
       </c>
       <c r="C17">
-        <v>20.69356622471794</v>
+        <v>13.3110237302855</v>
       </c>
       <c r="D17">
-        <v>8.842711419720763</v>
+        <v>11.67747712677159</v>
       </c>
       <c r="E17">
-        <v>14.29119694269861</v>
+        <v>11.07286154165918</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.30605500412618</v>
+        <v>2.077463986195412</v>
       </c>
       <c r="H17">
-        <v>41.79452008356962</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>34.39416335051097</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.173234571122567</v>
       </c>
       <c r="K17">
-        <v>20.85190329658393</v>
+        <v>18.22221262892819</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.35672043543256</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.60502073061769</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>77.09260380614225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.17876891260774</v>
+        <v>20.9131659067419</v>
       </c>
       <c r="C18">
-        <v>20.39680906489253</v>
+        <v>13.09110592952108</v>
       </c>
       <c r="D18">
-        <v>8.718694869387249</v>
+        <v>11.57929101259505</v>
       </c>
       <c r="E18">
-        <v>14.08318873941187</v>
+        <v>11.00248005487807</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.78938933236688</v>
+        <v>2.081814477551304</v>
       </c>
       <c r="H18">
-        <v>41.31737233271132</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>34.03966419390928</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.174183308737182</v>
       </c>
       <c r="K18">
-        <v>20.56470985754027</v>
+        <v>17.93747160191275</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.06067770035075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.44827375287237</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>76.17307482267448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.07718444532436</v>
+        <v>20.80346180104729</v>
       </c>
       <c r="C19">
-        <v>20.29589081667103</v>
+        <v>13.01662145541565</v>
       </c>
       <c r="D19">
-        <v>8.676502258017601</v>
+        <v>11.54615811433787</v>
       </c>
       <c r="E19">
-        <v>14.01248069284423</v>
+        <v>10.97877712782993</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>40.6140421008017</v>
+        <v>2.083284229225932</v>
       </c>
       <c r="H19">
-        <v>41.15560844514033</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.91959707691555</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.174531643202802</v>
       </c>
       <c r="K19">
-        <v>20.46701035282979</v>
+        <v>17.8408722095839</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>20.95999245174146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.39550179962404</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>75.86121027088561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53234856751863</v>
+        <v>21.29637105061685</v>
       </c>
       <c r="C20">
-        <v>20.74828272061782</v>
+        <v>13.35171854895761</v>
       </c>
       <c r="D20">
-        <v>8.865568921996804</v>
+        <v>11.695703134167</v>
       </c>
       <c r="E20">
-        <v>14.32956380557011</v>
+        <v>11.08594895207211</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.40148527280859</v>
+        <v>2.076657148639209</v>
       </c>
       <c r="H20">
-        <v>41.88273234961049</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>34.45975616458977</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.173071978746672</v>
       </c>
       <c r="K20">
-        <v>20.90484022767425</v>
+        <v>18.27482600152615</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.41130036594256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.63417585937429</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>77.26254789948547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.02872386327345</v>
+        <v>22.94218479266176</v>
       </c>
       <c r="C21">
-        <v>22.23949984688062</v>
+        <v>14.47881408006733</v>
       </c>
       <c r="D21">
-        <v>9.487416213502534</v>
+        <v>12.20665708786722</v>
       </c>
       <c r="E21">
-        <v>15.37686406403633</v>
+        <v>11.45555600373191</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.02066436515127</v>
+        <v>2.054090209387149</v>
       </c>
       <c r="H21">
-        <v>44.31298075513736</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>36.27315908396325</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.170131389228944</v>
       </c>
       <c r="K21">
-        <v>22.34556892055019</v>
+        <v>19.72276384418644</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.89818244655535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17.83193015228424</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>81.94122451080743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.98440033934414</v>
+        <v>24.01465862570205</v>
       </c>
       <c r="C22">
-        <v>23.1951832643151</v>
+        <v>15.22029081328034</v>
       </c>
       <c r="D22">
-        <v>9.884766907996521</v>
+        <v>12.54804034929797</v>
       </c>
       <c r="E22">
-        <v>16.04973344895781</v>
+        <v>11.70517465546969</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.71582567901476</v>
+        <v>2.03901701384947</v>
       </c>
       <c r="H22">
-        <v>45.89442200962816</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>37.45918246379466</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.169776058427762</v>
       </c>
       <c r="K22">
-        <v>23.2668090741294</v>
+        <v>20.66587746584159</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.85042042721397</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18.65703358939522</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>84.98686695569761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.47622184530932</v>
+        <v>23.44222010317433</v>
       </c>
       <c r="C23">
-        <v>22.68667192285722</v>
+        <v>14.82381960165988</v>
       </c>
       <c r="D23">
-        <v>9.673458871192391</v>
+        <v>12.36507267113506</v>
       </c>
       <c r="E23">
-        <v>15.69154218627367</v>
+        <v>11.57114006243313</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.81237445767617</v>
+        <v>2.047098726210833</v>
       </c>
       <c r="H23">
-        <v>45.05080339147462</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>36.8259523769817</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.169815066998382</v>
       </c>
       <c r="K23">
-        <v>22.77683295035487</v>
+        <v>20.16250093014089</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.34381065154212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.21696829347976</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>83.36172738970428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.50748221577667</v>
+        <v>21.26935162017481</v>
       </c>
       <c r="C24">
-        <v>20.72355360873144</v>
+        <v>13.33332087427565</v>
       </c>
       <c r="D24">
-        <v>8.855238820472646</v>
+        <v>11.68746120289941</v>
       </c>
       <c r="E24">
-        <v>14.31222336793403</v>
+        <v>11.08002986115072</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.3583492453843</v>
+        <v>2.077021980359802</v>
       </c>
       <c r="H24">
-        <v>41.84285588532307</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>34.43010274788621</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.173144985973631</v>
       </c>
       <c r="K24">
-        <v>20.88091601692307</v>
+        <v>18.25104303206212</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.38663316323523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.62098945416874</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>77.18572632865238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.27440710974472</v>
+        <v>18.8851890296348</v>
       </c>
       <c r="C25">
-        <v>18.50935906585528</v>
+        <v>11.72291997728488</v>
       </c>
       <c r="D25">
-        <v>7.928102303200779</v>
+        <v>10.98212249286083</v>
       </c>
       <c r="E25">
-        <v>12.92536006945576</v>
+        <v>10.57923624416179</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.54301264181343</v>
+        <v>2.108509422619004</v>
       </c>
       <c r="H25">
-        <v>38.3379382166349</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>31.83846358247368</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.182838103900314</v>
       </c>
       <c r="K25">
-        <v>18.73471492804518</v>
+        <v>16.149619891596</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.17680784124343</v>
+        <v>15.50750433515001</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>70.41350259223789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.0793802213423</v>
+        <v>20.92691169526627</v>
       </c>
       <c r="C2">
-        <v>10.5156163163979</v>
+        <v>12.50942917882063</v>
       </c>
       <c r="D2">
-        <v>10.48016533570118</v>
+        <v>8.379710339643697</v>
       </c>
       <c r="E2">
-        <v>10.23089273956393</v>
+        <v>7.869159183708123</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.13153757003631</v>
+        <v>2.115481620930704</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.77379206804451</v>
       </c>
       <c r="J2">
-        <v>5.194670500121861</v>
+        <v>5.391904276133084</v>
       </c>
       <c r="K2">
-        <v>14.54635219082999</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.779947974704654</v>
       </c>
       <c r="M2">
-        <v>14.7368257089972</v>
+        <v>13.56368789987805</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>65.28739594487088</v>
+        <v>19.95128596776667</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.04890944289091</v>
+        <v>19.57764473040359</v>
       </c>
       <c r="C3">
-        <v>9.677473610236751</v>
+        <v>11.80304848846672</v>
       </c>
       <c r="D3">
-        <v>10.14963605359042</v>
+        <v>8.295401691337181</v>
       </c>
       <c r="E3">
-        <v>10.00603057407627</v>
+        <v>7.962116418604613</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.147247226155803</v>
+        <v>2.122039263684188</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>18.03264331284381</v>
       </c>
       <c r="J3">
-        <v>5.20540048909645</v>
+        <v>5.375209512735718</v>
       </c>
       <c r="K3">
-        <v>13.5598485580785</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.665208970587674</v>
       </c>
       <c r="M3">
-        <v>14.24252153353538</v>
+        <v>12.97662934995329</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>61.71367757502437</v>
+        <v>19.93340271799298</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.41469669190006</v>
+        <v>18.70508512042638</v>
       </c>
       <c r="C4">
-        <v>9.151631320759826</v>
+        <v>11.34773141371525</v>
       </c>
       <c r="D4">
-        <v>9.95128541633332</v>
+        <v>8.24843891491431</v>
       </c>
       <c r="E4">
-        <v>9.873139412049149</v>
+        <v>8.021508807029411</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.156998036436145</v>
+        <v>2.126186023602695</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>18.20690371831858</v>
       </c>
       <c r="J4">
-        <v>5.213265787279516</v>
+        <v>5.36513935580761</v>
       </c>
       <c r="K4">
-        <v>13.08335044442189</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.597168439573873</v>
       </c>
       <c r="M4">
-        <v>13.95234409018118</v>
+        <v>12.60689367346893</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>59.46852936898467</v>
+        <v>19.94235337763887</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.1560075294594</v>
+        <v>18.33848506265312</v>
       </c>
       <c r="C5">
-        <v>8.934398587239007</v>
+        <v>11.15681862136436</v>
       </c>
       <c r="D5">
-        <v>9.871606106398454</v>
+        <v>8.230496071543293</v>
       </c>
       <c r="E5">
-        <v>9.82024480430786</v>
+        <v>8.046296303560963</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.161004989126254</v>
+        <v>2.127907003129741</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.28159334972664</v>
       </c>
       <c r="J5">
-        <v>5.216784135901921</v>
+        <v>5.361079337230095</v>
       </c>
       <c r="K5">
-        <v>12.89087510315205</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.570061882560555</v>
       </c>
       <c r="M5">
-        <v>13.83740495045865</v>
+        <v>12.45408130130874</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>58.54082546433437</v>
+        <v>19.95080228202489</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.11304358982404</v>
+        <v>18.27694811336061</v>
       </c>
       <c r="C6">
-        <v>8.898146908863236</v>
+        <v>11.12479578562374</v>
       </c>
       <c r="D6">
-        <v>9.858444963571941</v>
+        <v>8.227588420609182</v>
       </c>
       <c r="E6">
-        <v>9.811536683069527</v>
+        <v>8.05044762449422</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.161672548889787</v>
+        <v>2.128194676246678</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.29421271094577</v>
       </c>
       <c r="J6">
-        <v>5.217387052825377</v>
+        <v>5.360407762425549</v>
       </c>
       <c r="K6">
-        <v>12.85902174593546</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.565598745398846</v>
       </c>
       <c r="M6">
-        <v>13.81851847624425</v>
+        <v>12.42858366939934</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>58.38601296099719</v>
+        <v>19.95248903805075</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.41120865050787</v>
+        <v>18.70018555216334</v>
       </c>
       <c r="C7">
-        <v>9.14871369443806</v>
+        <v>11.34517833049187</v>
       </c>
       <c r="D7">
-        <v>9.950206174209077</v>
+        <v>8.248192112202865</v>
       </c>
       <c r="E7">
-        <v>9.87242100675156</v>
+        <v>8.021840729772943</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.1570519316032</v>
+        <v>2.126209106111604</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.20789634291194</v>
       </c>
       <c r="J7">
-        <v>5.213311978834363</v>
+        <v>5.365084426431152</v>
       </c>
       <c r="K7">
-        <v>13.08074758161303</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.596800340003766</v>
       </c>
       <c r="M7">
-        <v>13.9507806174293</v>
+        <v>12.60484119288883</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>59.45606964089504</v>
+        <v>19.94244816048963</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.72443433485024</v>
+        <v>20.47086737060219</v>
       </c>
       <c r="C8">
-        <v>10.22885458731912</v>
+        <v>12.27038306055072</v>
       </c>
       <c r="D8">
-        <v>10.36523720424622</v>
+        <v>8.349636750289566</v>
       </c>
       <c r="E8">
-        <v>10.15225852327628</v>
+        <v>7.900731360509269</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.136936949669083</v>
+        <v>2.117718264064783</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.85975261942331</v>
       </c>
       <c r="J8">
-        <v>5.198100102241686</v>
+        <v>5.386109369550156</v>
       </c>
       <c r="K8">
-        <v>14.16157406809306</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.739894793303427</v>
       </c>
       <c r="M8">
-        <v>14.56359224849622</v>
+        <v>13.36330245424387</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>64.06566769517242</v>
+        <v>19.94085705670336</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.69588667825782</v>
+        <v>23.67464210647271</v>
       </c>
       <c r="C9">
-        <v>12.26766837484478</v>
+        <v>13.91157483567216</v>
       </c>
       <c r="D9">
-        <v>11.21679000390806</v>
+        <v>8.587159591028524</v>
       </c>
       <c r="E9">
-        <v>10.744517174782</v>
+        <v>7.681523433359258</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.097957495149406</v>
+        <v>2.101980268327843</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.3073522970671</v>
       </c>
       <c r="J9">
-        <v>5.178810952565456</v>
+        <v>5.428858996259489</v>
       </c>
       <c r="K9">
-        <v>16.86493862931964</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.038964618459012</v>
       </c>
       <c r="M9">
-        <v>15.87445851008953</v>
+        <v>14.76997637327405</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>72.71412649241167</v>
+        <v>20.10517815502102</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.86100762927668</v>
+        <v>25.83476794976604</v>
       </c>
       <c r="C10">
-        <v>13.73695744227201</v>
+        <v>15.01063703263972</v>
       </c>
       <c r="D10">
-        <v>11.86906856143837</v>
+        <v>8.785744402821399</v>
       </c>
       <c r="E10">
-        <v>11.21078069442135</v>
+        <v>7.531507530404265</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.068991506617984</v>
+        <v>2.090910824479586</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.99423625696163</v>
       </c>
       <c r="J10">
-        <v>5.171730677185383</v>
+        <v>5.461330891076619</v>
       </c>
       <c r="K10">
-        <v>18.77172186238321</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.269080895814644</v>
       </c>
       <c r="M10">
-        <v>16.99726221370424</v>
+        <v>15.74666073370573</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>78.86795064004008</v>
+        <v>20.3404697055793</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.83582564539565</v>
+        <v>26.76685968998988</v>
       </c>
       <c r="C11">
-        <v>14.40558702879206</v>
+        <v>15.48748864954241</v>
       </c>
       <c r="D11">
-        <v>12.17314011742077</v>
+        <v>8.881406751847203</v>
       </c>
       <c r="E11">
-        <v>11.43115847599856</v>
+        <v>7.465640809159744</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.055569160864072</v>
+        <v>2.085967068030798</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.87521675083063</v>
       </c>
       <c r="J11">
-        <v>5.170232937478371</v>
+        <v>5.476368638055202</v>
       </c>
       <c r="K11">
-        <v>19.6292238824364</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.375851230365997</v>
       </c>
       <c r="M11">
-        <v>17.74995279429669</v>
+        <v>16.17750492526101</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>81.63899030638811</v>
+        <v>20.47497818339624</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.20433267506733</v>
+        <v>27.11265716784712</v>
       </c>
       <c r="C12">
-        <v>14.65953410754608</v>
+        <v>15.66475206173418</v>
       </c>
       <c r="D12">
-        <v>12.28953796239374</v>
+        <v>8.918403579097749</v>
       </c>
       <c r="E12">
-        <v>11.51597286681058</v>
+        <v>7.441039975243545</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.050432760446095</v>
+        <v>2.084106846986861</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>16.83381796287077</v>
       </c>
       <c r="J12">
-        <v>5.169932519803991</v>
+        <v>5.482104462404531</v>
       </c>
       <c r="K12">
-        <v>19.95330515501493</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.416569727340304</v>
       </c>
       <c r="M12">
-        <v>18.03386491630877</v>
+        <v>16.33865166606689</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>82.68602777989825</v>
+        <v>20.53006954866115</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.12498104355193</v>
+        <v>27.03850045034972</v>
       </c>
       <c r="C13">
-        <v>14.60479525055529</v>
+        <v>15.62672209233436</v>
       </c>
       <c r="D13">
-        <v>12.26441002776192</v>
+        <v>8.910401240466674</v>
       </c>
       <c r="E13">
-        <v>11.49764269362903</v>
+        <v>7.446323016062662</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.051541698258363</v>
+        <v>2.084506973104336</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>16.84256555079628</v>
       </c>
       <c r="J13">
-        <v>5.169985013953911</v>
+        <v>5.480867257880738</v>
       </c>
       <c r="K13">
-        <v>19.88352218578044</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.407787707568568</v>
       </c>
       <c r="M13">
-        <v>17.9727572987083</v>
+        <v>16.30403590082123</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>82.46059748723002</v>
+        <v>20.51801658339508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.86615023577829</v>
+        <v>26.79545164252968</v>
       </c>
       <c r="C14">
-        <v>14.42645958965147</v>
+        <v>15.50213843635319</v>
       </c>
       <c r="D14">
-        <v>12.18268976587293</v>
+        <v>8.884435005928925</v>
       </c>
       <c r="E14">
-        <v>11.43810773904725</v>
+        <v>7.463610039666335</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.055147780864417</v>
+        <v>2.085813796562028</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.87173544161245</v>
       </c>
       <c r="J14">
-        <v>5.170202753944467</v>
+        <v>5.476839680047338</v>
       </c>
       <c r="K14">
-        <v>19.6558938153424</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.379195487207076</v>
       </c>
       <c r="M14">
-        <v>17.77332861948574</v>
+        <v>16.19080307335514</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>81.72516460333466</v>
+        <v>20.47942613332377</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.70755399577742</v>
+        <v>26.64564728402934</v>
       </c>
       <c r="C15">
-        <v>14.3173460781302</v>
+        <v>15.42539689059211</v>
       </c>
       <c r="D15">
-        <v>12.13280385113549</v>
+        <v>8.868630593018491</v>
       </c>
       <c r="E15">
-        <v>11.40182422461361</v>
+        <v>7.47424331193275</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.057349010944064</v>
+        <v>2.086615768621198</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.89009039035333</v>
       </c>
       <c r="J15">
-        <v>5.170371490318264</v>
+        <v>5.474378155488791</v>
       </c>
       <c r="K15">
-        <v>19.51640855492903</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.361718915996972</v>
       </c>
       <c r="M15">
-        <v>17.65104880815305</v>
+        <v>16.12118188595929</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>81.27445372803577</v>
+        <v>20.45633560375756</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.79716291422076</v>
+        <v>25.77284502726363</v>
       </c>
       <c r="C16">
-        <v>13.69332309860868</v>
+        <v>14.97900947166715</v>
       </c>
       <c r="D16">
-        <v>11.84935986538577</v>
+        <v>8.779600296681766</v>
       </c>
       <c r="E16">
-        <v>11.19655860001956</v>
+        <v>7.535859859067158</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.069862267673193</v>
+        <v>2.09123564652834</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.0025111110021</v>
       </c>
       <c r="J16">
-        <v>5.171864770540878</v>
+        <v>5.460353750410548</v>
       </c>
       <c r="K16">
-        <v>18.71554611669615</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.262144048198037</v>
       </c>
       <c r="M16">
-        <v>16.94787833372457</v>
+        <v>15.71822690816346</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>78.68642680732371</v>
+        <v>20.33224975219168</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.23659867086989</v>
+        <v>25.22453259437088</v>
       </c>
       <c r="C17">
-        <v>13.3110237302855</v>
+        <v>14.69925131060624</v>
       </c>
       <c r="D17">
-        <v>11.67747712677159</v>
+        <v>8.726351155748539</v>
       </c>
       <c r="E17">
-        <v>11.07286154165918</v>
+        <v>7.574267892838542</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.077463986195412</v>
+        <v>2.094092389217979</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.07768404782873</v>
       </c>
       <c r="J17">
-        <v>5.173234571122567</v>
+        <v>5.45182048612293</v>
       </c>
       <c r="K17">
-        <v>18.22221262892819</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.201583046851168</v>
       </c>
       <c r="M17">
-        <v>16.60502073061769</v>
+        <v>15.46752528353401</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>77.09260380614225</v>
+        <v>20.26331126450039</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.9131659067419</v>
+        <v>24.90439222738299</v>
       </c>
       <c r="C18">
-        <v>13.09110592952108</v>
+        <v>14.53616437997754</v>
       </c>
       <c r="D18">
-        <v>11.57929101259505</v>
+        <v>8.696224560045323</v>
       </c>
       <c r="E18">
-        <v>11.00248005487807</v>
+        <v>7.596582826981241</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.081814477551304</v>
+        <v>2.095744236974852</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.12310612908398</v>
       </c>
       <c r="J18">
-        <v>5.174183308737182</v>
+        <v>5.44693722291941</v>
       </c>
       <c r="K18">
-        <v>17.93747160191275</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.166947335276435</v>
       </c>
       <c r="M18">
-        <v>16.44827375287237</v>
+        <v>15.32206486152859</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>76.17307482267448</v>
+        <v>20.22623360911614</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.80346180104729</v>
+        <v>24.79517659054576</v>
       </c>
       <c r="C19">
-        <v>13.01662145541565</v>
+        <v>14.48057170031416</v>
       </c>
       <c r="D19">
-        <v>11.54615811433787</v>
+        <v>8.686110064340781</v>
       </c>
       <c r="E19">
-        <v>10.97877712782993</v>
+        <v>7.604176708324211</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.083284229225932</v>
+        <v>2.096305061527922</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.13885161541053</v>
       </c>
       <c r="J19">
-        <v>5.174531643202802</v>
+        <v>5.445288012248668</v>
       </c>
       <c r="K19">
-        <v>17.8408722095839</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.155254617853863</v>
       </c>
       <c r="M19">
-        <v>16.39550179962404</v>
+        <v>15.27259989990733</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>75.86121027088561</v>
+        <v>20.21411549287136</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.29637105061685</v>
+        <v>25.28339386071946</v>
       </c>
       <c r="C20">
-        <v>13.35171854895761</v>
+        <v>14.72925732886037</v>
       </c>
       <c r="D20">
-        <v>11.695703134167</v>
+        <v>8.731967734118923</v>
       </c>
       <c r="E20">
-        <v>11.08594895207211</v>
+        <v>7.570156148750362</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.076657148639209</v>
+        <v>2.093787390371348</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.06945354051214</v>
       </c>
       <c r="J20">
-        <v>5.173071978746672</v>
+        <v>5.452726274022735</v>
       </c>
       <c r="K20">
-        <v>18.27482600152615</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.208009544912063</v>
       </c>
       <c r="M20">
-        <v>16.63417585937429</v>
+        <v>15.49434423090964</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>77.26254789948547</v>
+        <v>20.27038198860733</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.94218479266176</v>
+        <v>26.86703457396461</v>
       </c>
       <c r="C21">
-        <v>14.47881408006733</v>
+        <v>15.53882134406103</v>
       </c>
       <c r="D21">
-        <v>12.20665708786722</v>
+        <v>8.892040931302564</v>
       </c>
       <c r="E21">
-        <v>11.45555600373191</v>
+        <v>7.458523153669663</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.054090209387149</v>
+        <v>2.085429639720916</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.86306535633371</v>
       </c>
       <c r="J21">
-        <v>5.170131389228944</v>
+        <v>5.478021528606212</v>
       </c>
       <c r="K21">
-        <v>19.72276384418644</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.387586028473093</v>
       </c>
       <c r="M21">
-        <v>17.83193015228424</v>
+        <v>16.22411716773619</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>81.94122451080743</v>
+        <v>20.49064668095389</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.01465862570205</v>
+        <v>27.86032220554356</v>
       </c>
       <c r="C22">
-        <v>15.22029081328034</v>
+        <v>16.04863879898248</v>
       </c>
       <c r="D22">
-        <v>12.54804034929797</v>
+        <v>9.001158238095746</v>
       </c>
       <c r="E22">
-        <v>11.70517465546969</v>
+        <v>7.387555163002382</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.03901701384947</v>
+        <v>2.080035873912038</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>16.7497365175033</v>
       </c>
       <c r="J22">
-        <v>5.169776058427762</v>
+        <v>5.494796177758925</v>
       </c>
       <c r="K22">
-        <v>20.66587746584159</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.506616926097673</v>
       </c>
       <c r="M22">
-        <v>18.65703358939522</v>
+        <v>16.68936216758514</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>84.98686695569761</v>
+        <v>20.65891823125352</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.44222010317433</v>
+        <v>27.33396658278053</v>
       </c>
       <c r="C23">
-        <v>14.82381960165988</v>
+        <v>15.77829644816092</v>
       </c>
       <c r="D23">
-        <v>12.36507267113506</v>
+        <v>8.942506527346939</v>
       </c>
       <c r="E23">
-        <v>11.57114006243313</v>
+        <v>7.425249900683426</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.047098726210833</v>
+        <v>2.082908826062799</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>16.80814295007401</v>
       </c>
       <c r="J23">
-        <v>5.169815066998382</v>
+        <v>5.485819910665049</v>
       </c>
       <c r="K23">
-        <v>20.16250093014089</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.44293933108651</v>
       </c>
       <c r="M23">
-        <v>18.21696829347976</v>
+        <v>16.44214134497629</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>83.36172738970428</v>
+        <v>20.56681702735503</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.26935162017481</v>
+        <v>25.25679797818058</v>
       </c>
       <c r="C24">
-        <v>13.33332087427565</v>
+        <v>14.71569861796154</v>
       </c>
       <c r="D24">
-        <v>11.68746120289941</v>
+        <v>8.729426962435625</v>
       </c>
       <c r="E24">
-        <v>11.08002986115072</v>
+        <v>7.572014340478423</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.077021980359802</v>
+        <v>2.093925250759036</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.07316771010163</v>
       </c>
       <c r="J24">
-        <v>5.173144985973631</v>
+        <v>5.452316697073337</v>
       </c>
       <c r="K24">
-        <v>18.25104303206212</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.205103558395919</v>
       </c>
       <c r="M24">
-        <v>16.62098945416874</v>
+        <v>15.48222351795033</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>77.18572632865238</v>
+        <v>20.26717736847887</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.8851890296348</v>
+        <v>22.83365036022361</v>
       </c>
       <c r="C25">
-        <v>11.72291997728488</v>
+        <v>13.48630072849284</v>
       </c>
       <c r="D25">
-        <v>10.98212249286083</v>
+        <v>8.518709057242045</v>
       </c>
       <c r="E25">
-        <v>10.57923624416179</v>
+        <v>7.738879971690283</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.108509422619004</v>
+        <v>2.106146375535332</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.44154413594511</v>
       </c>
       <c r="J25">
-        <v>5.182838103900314</v>
+        <v>5.417118001249259</v>
       </c>
       <c r="K25">
-        <v>16.149619891596</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.956172075649991</v>
       </c>
       <c r="M25">
-        <v>15.50750433515001</v>
+        <v>14.39894848253721</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>70.41350259223789</v>
+        <v>20.04149597149629</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.92691169526627</v>
+        <v>18.6514076380946</v>
       </c>
       <c r="C2">
-        <v>12.50942917882063</v>
+        <v>7.741825815864408</v>
       </c>
       <c r="D2">
-        <v>8.379710339643697</v>
+        <v>13.26019950611015</v>
       </c>
       <c r="E2">
-        <v>7.869159183708123</v>
+        <v>13.48439481454401</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.115481620930704</v>
+        <v>3.705182133722158</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.77379206804451</v>
+        <v>29.33246696157861</v>
       </c>
       <c r="J2">
-        <v>5.391904276133084</v>
+        <v>8.319089616753658</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.779947974704654</v>
+        <v>12.63027525088045</v>
       </c>
       <c r="M2">
-        <v>13.56368789987805</v>
+        <v>18.16039445697825</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.95128596776667</v>
+        <v>31.19983929856758</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57764473040359</v>
+        <v>18.24080647313166</v>
       </c>
       <c r="C3">
-        <v>11.80304848846672</v>
+        <v>7.369660582656021</v>
       </c>
       <c r="D3">
-        <v>8.295401691337181</v>
+        <v>13.28222574096133</v>
       </c>
       <c r="E3">
-        <v>7.962116418604613</v>
+        <v>13.52233879294058</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.122039263684188</v>
+        <v>3.707660028416202</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.03264331284381</v>
+        <v>29.47480329809872</v>
       </c>
       <c r="J3">
-        <v>5.375209512735718</v>
+        <v>8.316194228781148</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.665208970587674</v>
+        <v>12.63618920080549</v>
       </c>
       <c r="M3">
-        <v>12.97662934995329</v>
+        <v>18.07064374584845</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.93340271799298</v>
+        <v>31.31108256915581</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.70508512042638</v>
+        <v>17.98629201786513</v>
       </c>
       <c r="C4">
-        <v>11.34773141371525</v>
+        <v>7.129972900285219</v>
       </c>
       <c r="D4">
-        <v>8.24843891491431</v>
+        <v>13.29799462284642</v>
       </c>
       <c r="E4">
-        <v>8.021508807029411</v>
+        <v>13.54694938079308</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.126186023602695</v>
+        <v>3.709262343049923</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.20690371831858</v>
+        <v>29.56815191760012</v>
       </c>
       <c r="J4">
-        <v>5.36513935580761</v>
+        <v>8.314475424074157</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.597168439573873</v>
+        <v>12.64138520173457</v>
       </c>
       <c r="M4">
-        <v>12.60689367346893</v>
+        <v>18.01759750333992</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.94235337763887</v>
+        <v>31.3864662455634</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33848506265312</v>
+        <v>17.88211093820032</v>
       </c>
       <c r="C5">
-        <v>11.15681862136436</v>
+        <v>7.029560876870465</v>
       </c>
       <c r="D5">
-        <v>8.230496071543293</v>
+        <v>13.30498483565549</v>
       </c>
       <c r="E5">
-        <v>8.046296303560963</v>
+        <v>13.5573093356443</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.127907003129741</v>
+        <v>3.709935703182679</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.28159334972664</v>
+        <v>29.60768834233902</v>
       </c>
       <c r="J5">
-        <v>5.361079337230095</v>
+        <v>8.313789943985206</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.570061882560555</v>
+        <v>12.64389688025149</v>
       </c>
       <c r="M5">
-        <v>12.45408130130874</v>
+        <v>17.99651377730838</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.95080228202489</v>
+        <v>31.4189614583131</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.27694811336061</v>
+        <v>17.86478789424742</v>
       </c>
       <c r="C6">
-        <v>11.12479578562374</v>
+        <v>7.012724602084848</v>
       </c>
       <c r="D6">
-        <v>8.227588420609182</v>
+        <v>13.30617962843176</v>
       </c>
       <c r="E6">
-        <v>8.05044762449422</v>
+        <v>13.55904961035747</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.128194676246678</v>
+        <v>3.710048748425966</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.29421271094577</v>
+        <v>29.61434366976518</v>
       </c>
       <c r="J6">
-        <v>5.360407762425549</v>
+        <v>8.313677026708271</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.565598745398846</v>
+        <v>12.64433777653662</v>
       </c>
       <c r="M6">
-        <v>12.42858366939934</v>
+        <v>17.99304545484168</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.95248903805075</v>
+        <v>31.42446437988886</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.70018555216334</v>
+        <v>17.9848886868479</v>
       </c>
       <c r="C7">
-        <v>11.34517833049187</v>
+        <v>7.128629685872015</v>
       </c>
       <c r="D7">
-        <v>8.248192112202865</v>
+        <v>13.29808661091065</v>
       </c>
       <c r="E7">
-        <v>8.021840729772943</v>
+        <v>13.54708775771241</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.126209106111604</v>
+        <v>3.70927134151693</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.20789634291194</v>
+        <v>29.56867906324241</v>
       </c>
       <c r="J7">
-        <v>5.365084426431152</v>
+        <v>8.314466118776496</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.596800340003766</v>
+        <v>12.64141747776911</v>
       </c>
       <c r="M7">
-        <v>12.60484119288883</v>
+        <v>18.01731098350601</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.94244816048963</v>
+        <v>31.38689730353673</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.47086737060219</v>
+        <v>18.51041362479497</v>
       </c>
       <c r="C8">
-        <v>12.27038306055072</v>
+        <v>7.615862960906831</v>
       </c>
       <c r="D8">
-        <v>8.349636750289566</v>
+        <v>13.26732818481191</v>
       </c>
       <c r="E8">
-        <v>7.900731360509269</v>
+        <v>13.49720591334867</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.117718264064783</v>
+        <v>3.706019765926944</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.85975261942331</v>
+        <v>29.38030828806662</v>
       </c>
       <c r="J8">
-        <v>5.386109369550156</v>
+        <v>8.318079115935513</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.739894793303427</v>
+        <v>12.63199009372077</v>
       </c>
       <c r="M8">
-        <v>13.36330245424387</v>
+        <v>18.12902968888907</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.94085705670336</v>
+        <v>31.23672386231295</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.67464210647271</v>
+        <v>19.51602563130382</v>
       </c>
       <c r="C9">
-        <v>13.91157483567216</v>
+        <v>8.480037912007216</v>
       </c>
       <c r="D9">
-        <v>8.587159591028524</v>
+        <v>13.22482707642414</v>
       </c>
       <c r="E9">
-        <v>7.681523433359258</v>
+        <v>13.40976714634076</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.101980268327843</v>
+        <v>3.700282120141809</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.3073522970671</v>
+        <v>29.05819579223994</v>
       </c>
       <c r="J9">
-        <v>5.428858996259489</v>
+        <v>8.325627416090542</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.038964618459012</v>
+        <v>12.62588287671154</v>
       </c>
       <c r="M9">
-        <v>14.76997637327405</v>
+        <v>18.36378854070457</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.10517815502102</v>
+        <v>30.99860818481773</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.83476794976604</v>
+        <v>20.2322389536358</v>
       </c>
       <c r="C10">
-        <v>15.01063703263972</v>
+        <v>9.056525184111115</v>
       </c>
       <c r="D10">
-        <v>8.785744402821399</v>
+        <v>13.20446641917965</v>
       </c>
       <c r="E10">
-        <v>7.531507530404265</v>
+        <v>13.35180113682492</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.090910824479586</v>
+        <v>3.696451775583361</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.99423625696163</v>
+        <v>28.85042450892835</v>
       </c>
       <c r="J10">
-        <v>5.461330891076619</v>
+        <v>8.331449827102615</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.269080895814644</v>
+        <v>12.62889149814105</v>
       </c>
       <c r="M10">
-        <v>15.74666073370573</v>
+        <v>18.54488641102255</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.3404697055793</v>
+        <v>30.85829659434445</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.76685968998988</v>
+        <v>20.55172885545459</v>
       </c>
       <c r="C11">
-        <v>15.48748864954241</v>
+        <v>9.305682666409458</v>
       </c>
       <c r="D11">
-        <v>8.881406751847203</v>
+        <v>13.19756189029624</v>
       </c>
       <c r="E11">
-        <v>7.465640809159744</v>
+        <v>13.326782433508</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.085967068030798</v>
+        <v>3.694791968606451</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.87521675083063</v>
+        <v>28.76219057249487</v>
       </c>
       <c r="J11">
-        <v>5.476368638055202</v>
+        <v>8.334157479327784</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.375851230365997</v>
+        <v>12.63187517362371</v>
       </c>
       <c r="M11">
-        <v>16.17750492526101</v>
+        <v>18.62893475811702</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.47497818339624</v>
+        <v>30.80203928062848</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.11265716784712</v>
+        <v>20.67169422055946</v>
       </c>
       <c r="C12">
-        <v>15.66475206173418</v>
+        <v>9.398123763987178</v>
       </c>
       <c r="D12">
-        <v>8.918403579097749</v>
+        <v>13.19528604615318</v>
       </c>
       <c r="E12">
-        <v>7.441039975243545</v>
+        <v>13.31750184952246</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.084106846986861</v>
+        <v>3.694175256995889</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.83381796287077</v>
+        <v>28.72968358101729</v>
       </c>
       <c r="J12">
-        <v>5.482104462404531</v>
+        <v>8.335191166500827</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.416569727340304</v>
+        <v>12.63323600732842</v>
       </c>
       <c r="M12">
-        <v>16.33865166606689</v>
+        <v>18.66098289687191</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.53006954866115</v>
+        <v>30.78182905187188</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.03850045034972</v>
+        <v>20.64590449708719</v>
       </c>
       <c r="C13">
-        <v>15.62672209233436</v>
+        <v>9.378300216542474</v>
       </c>
       <c r="D13">
-        <v>8.910401240466674</v>
+        <v>13.1957611294432</v>
       </c>
       <c r="E13">
-        <v>7.446323016062662</v>
+        <v>13.31949199669137</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.084506973104336</v>
+        <v>3.694307552099091</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.84256555079628</v>
+        <v>28.73664424925064</v>
       </c>
       <c r="J13">
-        <v>5.480867257880738</v>
+        <v>8.334968173781624</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.407787707568568</v>
+        <v>12.63293267556327</v>
       </c>
       <c r="M13">
-        <v>16.30403590082123</v>
+        <v>18.65407123556188</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.51801658339508</v>
+        <v>30.7861329967377</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.79545164252968</v>
+        <v>20.56161949217036</v>
       </c>
       <c r="C14">
-        <v>15.50213843635319</v>
+        <v>9.313326255083682</v>
       </c>
       <c r="D14">
-        <v>8.884435005928925</v>
+        <v>13.1973678681271</v>
       </c>
       <c r="E14">
-        <v>7.463610039666335</v>
+        <v>13.32601504122158</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.085813796562028</v>
+        <v>3.694740994806804</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.87173544161245</v>
+        <v>28.75949804828024</v>
       </c>
       <c r="J14">
-        <v>5.476839680047338</v>
+        <v>8.334242354617638</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.379195487207076</v>
+        <v>12.63198250858186</v>
       </c>
       <c r="M14">
-        <v>16.19080307335514</v>
+        <v>18.63156705985959</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.47942613332377</v>
+        <v>30.80035463869212</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.64564728402934</v>
+        <v>20.50985672533146</v>
       </c>
       <c r="C15">
-        <v>15.42539689059211</v>
+        <v>9.273278451184593</v>
       </c>
       <c r="D15">
-        <v>8.868630593018491</v>
+        <v>13.19839614728012</v>
       </c>
       <c r="E15">
-        <v>7.47424331193275</v>
+        <v>13.33003576682423</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.086615768621198</v>
+        <v>3.695008028636403</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.89009039035333</v>
+        <v>28.77361461284722</v>
       </c>
       <c r="J15">
-        <v>5.474378155488791</v>
+        <v>8.333798854095411</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.361718915996972</v>
+        <v>12.63143054538887</v>
       </c>
       <c r="M15">
-        <v>16.12118188595929</v>
+        <v>18.61781080325554</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.45633560375756</v>
+        <v>30.809208301063</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.77284502726363</v>
+        <v>20.21122281044593</v>
       </c>
       <c r="C16">
-        <v>14.97900947166715</v>
+        <v>9.039976309819483</v>
       </c>
       <c r="D16">
-        <v>8.779600296681766</v>
+        <v>13.20496506720858</v>
       </c>
       <c r="E16">
-        <v>7.535859859067158</v>
+        <v>13.35346327825651</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.09123564652834</v>
+        <v>3.696561905436655</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.0025111110021</v>
+        <v>28.85631738020928</v>
       </c>
       <c r="J16">
-        <v>5.460353750410548</v>
+        <v>8.331274052196116</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.262144048198037</v>
+        <v>12.62872890102998</v>
       </c>
       <c r="M16">
-        <v>15.71822690816346</v>
+        <v>18.53942558579096</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.33224975219168</v>
+        <v>30.86212587924499</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.22453259437088</v>
+        <v>20.02632144198541</v>
       </c>
       <c r="C17">
-        <v>14.69925131060624</v>
+        <v>8.893479303359758</v>
       </c>
       <c r="D17">
-        <v>8.726351155748539</v>
+        <v>13.20959857493498</v>
       </c>
       <c r="E17">
-        <v>7.574267892838542</v>
+        <v>13.3681806340611</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.094092389217979</v>
+        <v>3.697536279549179</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.07768404782873</v>
+        <v>28.90866321582489</v>
       </c>
       <c r="J17">
-        <v>5.45182048612293</v>
+        <v>8.329740191117752</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.201583046851168</v>
+        <v>12.62748431258155</v>
       </c>
       <c r="M17">
-        <v>15.46752528353401</v>
+        <v>18.49175228886281</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.26331126450039</v>
+        <v>30.89653148818336</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.90439222738299</v>
+        <v>19.91938234863047</v>
       </c>
       <c r="C18">
-        <v>14.53616437997754</v>
+        <v>8.807987288040209</v>
       </c>
       <c r="D18">
-        <v>8.696224560045323</v>
+        <v>13.21248558145158</v>
       </c>
       <c r="E18">
-        <v>7.596582826981241</v>
+        <v>13.37677280931967</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.095744236974852</v>
+        <v>3.698104495514244</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.12310612908398</v>
+        <v>28.93936235311532</v>
       </c>
       <c r="J18">
-        <v>5.44693722291941</v>
+        <v>8.328863516589244</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.166947335276435</v>
+        <v>12.62692055449925</v>
       </c>
       <c r="M18">
-        <v>15.32206486152859</v>
+        <v>18.46448982552527</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.22623360911614</v>
+        <v>30.91703305833689</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.79517659054576</v>
+        <v>19.88307697245342</v>
       </c>
       <c r="C19">
-        <v>14.48057170031416</v>
+        <v>8.778830689426547</v>
       </c>
       <c r="D19">
-        <v>8.686110064340781</v>
+        <v>13.21350119636961</v>
       </c>
       <c r="E19">
-        <v>7.604176708324211</v>
+        <v>13.37970383094688</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.096305061527922</v>
+        <v>3.698298222086319</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.13885161541053</v>
+        <v>28.94985803559511</v>
       </c>
       <c r="J19">
-        <v>5.445288012248668</v>
+        <v>8.328567648766017</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.155254617853863</v>
+        <v>12.62675583526648</v>
       </c>
       <c r="M19">
-        <v>15.27259989990733</v>
+        <v>18.45528691793577</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.21411549287136</v>
+        <v>30.92409674943949</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.28339386071946</v>
+        <v>20.04606625895473</v>
       </c>
       <c r="C20">
-        <v>14.72925732886037</v>
+        <v>8.909201758929381</v>
       </c>
       <c r="D20">
-        <v>8.731967734118923</v>
+        <v>13.20908236227227</v>
       </c>
       <c r="E20">
-        <v>7.570156148750362</v>
+        <v>13.36660079298145</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.093787390371348</v>
+        <v>3.697431750828107</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.06945354051214</v>
+        <v>28.90302971200505</v>
       </c>
       <c r="J20">
-        <v>5.452726274022735</v>
+        <v>8.32990289854297</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.208009544912063</v>
+        <v>12.62760106858652</v>
       </c>
       <c r="M20">
-        <v>15.49434423090964</v>
+        <v>18.49681097939081</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.27038198860733</v>
+        <v>30.89279519132686</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.86703457396461</v>
+        <v>20.58640452002781</v>
       </c>
       <c r="C21">
-        <v>15.53882134406103</v>
+        <v>9.332462693252431</v>
       </c>
       <c r="D21">
-        <v>8.892040931302564</v>
+        <v>13.19688673916985</v>
       </c>
       <c r="E21">
-        <v>7.458523153669663</v>
+        <v>13.32409382027236</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.085429639720916</v>
+        <v>3.694613361840042</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.86306535633371</v>
+        <v>28.7527607487558</v>
       </c>
       <c r="J21">
-        <v>5.478021528606212</v>
+        <v>8.334455319483475</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.387586028473093</v>
+        <v>12.63225533740921</v>
       </c>
       <c r="M21">
-        <v>16.22411716773619</v>
+        <v>18.63817123857568</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.49064668095389</v>
+        <v>30.79614769393269</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.86032220554356</v>
+        <v>20.93356466555061</v>
       </c>
       <c r="C22">
-        <v>16.04863879898248</v>
+        <v>9.597949664345306</v>
       </c>
       <c r="D22">
-        <v>9.001158238095746</v>
+        <v>13.19089048709652</v>
       </c>
       <c r="E22">
-        <v>7.387555163002382</v>
+        <v>13.29744033807675</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.080035873912038</v>
+        <v>3.692840256806262</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.7497365175033</v>
+        <v>28.65982893208976</v>
       </c>
       <c r="J22">
-        <v>5.494796177758925</v>
+        <v>8.337479247203976</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.506616926097673</v>
+        <v>12.63664285300005</v>
       </c>
       <c r="M22">
-        <v>16.68936216758514</v>
+        <v>18.73183675654931</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.65891823125352</v>
+        <v>30.73935689227978</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.33396658278053</v>
+        <v>20.74886038051601</v>
       </c>
       <c r="C23">
-        <v>15.77829644816092</v>
+        <v>9.457281034707782</v>
       </c>
       <c r="D23">
-        <v>8.942506527346939</v>
+        <v>13.19391027185004</v>
       </c>
       <c r="E23">
-        <v>7.425249900683426</v>
+        <v>13.31156289223888</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.082908826062799</v>
+        <v>3.69378031452272</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.80814295007401</v>
+        <v>28.70894483715</v>
       </c>
       <c r="J23">
-        <v>5.485819910665049</v>
+        <v>8.335860910150082</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.44293933108651</v>
+        <v>12.63417846345535</v>
       </c>
       <c r="M23">
-        <v>16.44214134497629</v>
+        <v>18.6817349925207</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.56681702735503</v>
+        <v>30.76908256559052</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.25679797818058</v>
+        <v>20.03714160235297</v>
       </c>
       <c r="C24">
-        <v>14.71569861796154</v>
+        <v>8.902097587169729</v>
       </c>
       <c r="D24">
-        <v>8.729426962435625</v>
+        <v>13.20931504694032</v>
       </c>
       <c r="E24">
-        <v>7.572014340478423</v>
+        <v>13.36731463111176</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.093925250759036</v>
+        <v>3.697478983227807</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.07316771010163</v>
+        <v>28.90557473518144</v>
       </c>
       <c r="J24">
-        <v>5.452316697073337</v>
+        <v>8.329829322425704</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.205103558395919</v>
+        <v>12.62754781034397</v>
       </c>
       <c r="M24">
-        <v>15.48222351795033</v>
+        <v>18.49452349059397</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.26717736847887</v>
+        <v>30.89448212452035</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.83365036022361</v>
+        <v>19.24744274367076</v>
       </c>
       <c r="C25">
-        <v>13.48630072849284</v>
+        <v>8.256349616495005</v>
       </c>
       <c r="D25">
-        <v>8.518709057242045</v>
+        <v>13.23441662641086</v>
       </c>
       <c r="E25">
-        <v>7.738879971690283</v>
+        <v>13.4323159016194</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.106146375535332</v>
+        <v>3.701766371335616</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.44154413594511</v>
+        <v>29.14026795534402</v>
       </c>
       <c r="J25">
-        <v>5.417118001249259</v>
+        <v>8.323536397502258</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.956172075649991</v>
+        <v>12.62621466088102</v>
       </c>
       <c r="M25">
-        <v>14.39894848253721</v>
+        <v>18.29869626668553</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.04149597149629</v>
+        <v>31.05696165639532</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.6514076380946</v>
+        <v>20.92691169526628</v>
       </c>
       <c r="C2">
-        <v>7.741825815864408</v>
+        <v>12.50942917882049</v>
       </c>
       <c r="D2">
-        <v>13.26019950611015</v>
+        <v>8.379710339643715</v>
       </c>
       <c r="E2">
-        <v>13.48439481454401</v>
+        <v>7.869159183708257</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.705182133722158</v>
+        <v>2.115481620931104</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.33246696157861</v>
+        <v>17.77379206804456</v>
       </c>
       <c r="J2">
-        <v>8.319089616753658</v>
+        <v>5.391904276133152</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.63027525088045</v>
+        <v>7.779947974704745</v>
       </c>
       <c r="M2">
-        <v>18.16039445697825</v>
+        <v>13.5636878998781</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.19983929856758</v>
+        <v>19.95128596776681</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.24080647313166</v>
+        <v>19.57764473040358</v>
       </c>
       <c r="C3">
-        <v>7.369660582656021</v>
+        <v>11.80304848846658</v>
       </c>
       <c r="D3">
-        <v>13.28222574096133</v>
+        <v>8.295401691337178</v>
       </c>
       <c r="E3">
-        <v>13.52233879294058</v>
+        <v>7.962116418604547</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.707660028416202</v>
+        <v>2.122039263684186</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.47480329809872</v>
+        <v>18.03264331284349</v>
       </c>
       <c r="J3">
-        <v>8.316194228781148</v>
+        <v>5.375209512735686</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.63618920080549</v>
+        <v>7.665208970587702</v>
       </c>
       <c r="M3">
-        <v>18.07064374584845</v>
+        <v>12.97662934995324</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>31.31108256915581</v>
+        <v>19.93340271799275</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.98629201786513</v>
+        <v>18.7050851204264</v>
       </c>
       <c r="C4">
-        <v>7.129972900285219</v>
+        <v>11.34773141371531</v>
       </c>
       <c r="D4">
-        <v>13.29799462284642</v>
+        <v>8.248438914914306</v>
       </c>
       <c r="E4">
-        <v>13.54694938079308</v>
+        <v>8.021508807029351</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.709262343049923</v>
+        <v>2.126186023602964</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.56815191760012</v>
+        <v>18.20690371831851</v>
       </c>
       <c r="J4">
-        <v>8.314475424074157</v>
+        <v>5.365139355807543</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.64138520173457</v>
+        <v>7.597168439573822</v>
       </c>
       <c r="M4">
-        <v>18.01759750333992</v>
+        <v>12.60689367346888</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>31.3864662455634</v>
+        <v>19.94235337763884</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.88211093820032</v>
+        <v>18.33848506265309</v>
       </c>
       <c r="C5">
-        <v>7.029560876870465</v>
+        <v>11.15681862136419</v>
       </c>
       <c r="D5">
-        <v>13.30498483565549</v>
+        <v>8.230496071543191</v>
       </c>
       <c r="E5">
-        <v>13.5573093356443</v>
+        <v>8.046296303560768</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.709935703182679</v>
+        <v>2.127907003129605</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.60768834233902</v>
+        <v>18.28159334972652</v>
       </c>
       <c r="J5">
-        <v>8.313789943985206</v>
+        <v>5.361079337230024</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.64389688025149</v>
+        <v>7.570061882560471</v>
       </c>
       <c r="M5">
-        <v>17.99651377730838</v>
+        <v>12.45408130130865</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>31.4189614583131</v>
+        <v>19.95080228202478</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.86478789424742</v>
+        <v>18.27694811336064</v>
       </c>
       <c r="C6">
-        <v>7.012724602084848</v>
+        <v>11.12479578562383</v>
       </c>
       <c r="D6">
-        <v>13.30617962843176</v>
+        <v>8.227588420609269</v>
       </c>
       <c r="E6">
-        <v>13.55904961035747</v>
+        <v>8.050447624494282</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.710048748425966</v>
+        <v>2.128194676246812</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.61434366976518</v>
+        <v>18.29421271094575</v>
       </c>
       <c r="J6">
-        <v>8.313677026708271</v>
+        <v>5.360407762425549</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.64433777653662</v>
+        <v>7.565598745398805</v>
       </c>
       <c r="M6">
-        <v>17.99304545484168</v>
+        <v>12.42858366939936</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>31.42446437988886</v>
+        <v>19.95248903805069</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.9848886868479</v>
+        <v>18.70018555216336</v>
       </c>
       <c r="C7">
-        <v>7.128629685872015</v>
+        <v>11.345178330492</v>
       </c>
       <c r="D7">
-        <v>13.29808661091065</v>
+        <v>8.248192112202814</v>
       </c>
       <c r="E7">
-        <v>13.54708775771241</v>
+        <v>8.021840729773011</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.70927134151693</v>
+        <v>2.126209106111604</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.56867906324241</v>
+        <v>18.2078963429119</v>
       </c>
       <c r="J7">
-        <v>8.314466118776496</v>
+        <v>5.365084426431151</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.64141747776911</v>
+        <v>7.596800340003755</v>
       </c>
       <c r="M7">
-        <v>18.01731098350601</v>
+        <v>12.60484119288881</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>31.38689730353673</v>
+        <v>19.94244816048954</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.51041362479497</v>
+        <v>20.47086737060219</v>
       </c>
       <c r="C8">
-        <v>7.615862960906831</v>
+        <v>12.27038306055055</v>
       </c>
       <c r="D8">
-        <v>13.26732818481191</v>
+        <v>8.349636750289498</v>
       </c>
       <c r="E8">
-        <v>13.49720591334867</v>
+        <v>7.900731360509271</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.706019765926944</v>
+        <v>2.117718264064782</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.38030828806662</v>
+        <v>17.85975261942349</v>
       </c>
       <c r="J8">
-        <v>8.318079115935513</v>
+        <v>5.386109369550122</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.63199009372077</v>
+        <v>7.739894793303415</v>
       </c>
       <c r="M8">
-        <v>18.12902968888907</v>
+        <v>13.36330245424389</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.23672386231295</v>
+        <v>19.94085705670359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.51602563130382</v>
+        <v>23.67464210647271</v>
       </c>
       <c r="C9">
-        <v>8.480037912007216</v>
+        <v>13.91157483567221</v>
       </c>
       <c r="D9">
-        <v>13.22482707642414</v>
+        <v>8.587159591028607</v>
       </c>
       <c r="E9">
-        <v>13.40976714634076</v>
+        <v>7.681523433359256</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.700282120141809</v>
+        <v>2.10198026832771</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.05819579223994</v>
+        <v>17.30735229706717</v>
       </c>
       <c r="J9">
-        <v>8.325627416090542</v>
+        <v>5.428858996259488</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.62588287671154</v>
+        <v>8.038964618459049</v>
       </c>
       <c r="M9">
-        <v>18.36378854070457</v>
+        <v>14.76997637327407</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.99860818481773</v>
+        <v>20.10517815502107</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.2322389536358</v>
+        <v>25.83476794976598</v>
       </c>
       <c r="C10">
-        <v>9.056525184111115</v>
+        <v>15.01063703263962</v>
       </c>
       <c r="D10">
-        <v>13.20446641917965</v>
+        <v>8.785744402821512</v>
       </c>
       <c r="E10">
-        <v>13.35180113682492</v>
+        <v>7.531507530404201</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.696451775583361</v>
+        <v>2.090910824479587</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.85042450892835</v>
+        <v>16.99423625696186</v>
       </c>
       <c r="J10">
-        <v>8.331449827102615</v>
+        <v>5.461330891076617</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.62889149814105</v>
+        <v>8.269080895814698</v>
       </c>
       <c r="M10">
-        <v>18.54488641102255</v>
+        <v>15.74666073370575</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>30.85829659434445</v>
+        <v>20.34046970557948</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.55172885545459</v>
+        <v>26.76685968998986</v>
       </c>
       <c r="C11">
-        <v>9.305682666409458</v>
+        <v>15.48748864954231</v>
       </c>
       <c r="D11">
-        <v>13.19756189029624</v>
+        <v>8.881406751847324</v>
       </c>
       <c r="E11">
-        <v>13.326782433508</v>
+        <v>7.465640809159807</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.694791968606451</v>
+        <v>2.085967068031068</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.76219057249487</v>
+        <v>16.87521675083078</v>
       </c>
       <c r="J11">
-        <v>8.334157479327784</v>
+        <v>5.476368638055132</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.63187517362371</v>
+        <v>8.375851230366052</v>
       </c>
       <c r="M11">
-        <v>18.62893475811702</v>
+        <v>16.17750492526105</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>30.80203928062848</v>
+        <v>20.47497818339638</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.67169422055946</v>
+        <v>27.11265716784713</v>
       </c>
       <c r="C12">
-        <v>9.398123763987178</v>
+        <v>15.66475206173418</v>
       </c>
       <c r="D12">
-        <v>13.19528604615318</v>
+        <v>8.918403579097696</v>
       </c>
       <c r="E12">
-        <v>13.31750184952246</v>
+        <v>7.441039975243542</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.694175256995889</v>
+        <v>2.084106846986862</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.72968358101729</v>
+        <v>16.83381796287084</v>
       </c>
       <c r="J12">
-        <v>8.335191166500827</v>
+        <v>5.482104462404596</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.63323600732842</v>
+        <v>8.41656972734034</v>
       </c>
       <c r="M12">
-        <v>18.66098289687191</v>
+        <v>16.33865166606686</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>30.78182905187188</v>
+        <v>20.53006954866124</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.64590449708719</v>
+        <v>27.03850045034966</v>
       </c>
       <c r="C13">
-        <v>9.378300216542474</v>
+        <v>15.6267220923343</v>
       </c>
       <c r="D13">
-        <v>13.1957611294432</v>
+        <v>8.910401240466646</v>
       </c>
       <c r="E13">
-        <v>13.31949199669137</v>
+        <v>7.446323016062662</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.694307552099091</v>
+        <v>2.084506973104204</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.73664424925064</v>
+        <v>16.84256555079657</v>
       </c>
       <c r="J13">
-        <v>8.334968173781624</v>
+        <v>5.480867257880735</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.63293267556327</v>
+        <v>8.407787707568627</v>
       </c>
       <c r="M13">
-        <v>18.65407123556188</v>
+        <v>16.30403590082125</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>30.7861329967377</v>
+        <v>20.51801658339533</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.56161949217036</v>
+        <v>26.79545164252967</v>
       </c>
       <c r="C14">
-        <v>9.313326255083682</v>
+        <v>15.50213843635315</v>
       </c>
       <c r="D14">
-        <v>13.1973678681271</v>
+        <v>8.884435005929005</v>
       </c>
       <c r="E14">
-        <v>13.32601504122158</v>
+        <v>7.463610039666335</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.694740994806804</v>
+        <v>2.085813796562029</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.75949804828024</v>
+        <v>16.8717354416126</v>
       </c>
       <c r="J14">
-        <v>8.334242354617638</v>
+        <v>5.476839680047303</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.63198250858186</v>
+        <v>8.379195487207143</v>
       </c>
       <c r="M14">
-        <v>18.63156705985959</v>
+        <v>16.19080307335517</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>30.80035463869212</v>
+        <v>20.47942613332391</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.50985672533146</v>
+        <v>26.64564728402931</v>
       </c>
       <c r="C15">
-        <v>9.273278451184593</v>
+        <v>15.42539689059209</v>
       </c>
       <c r="D15">
-        <v>13.19839614728012</v>
+        <v>8.868630593018555</v>
       </c>
       <c r="E15">
-        <v>13.33003576682423</v>
+        <v>7.474243311932686</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.695008028636403</v>
+        <v>2.086615768621197</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.77361461284722</v>
+        <v>16.89009039035345</v>
       </c>
       <c r="J15">
-        <v>8.333798854095411</v>
+        <v>5.474378155488753</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.63143054538887</v>
+        <v>8.361718915996963</v>
       </c>
       <c r="M15">
-        <v>18.61781080325554</v>
+        <v>16.12118188595929</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>30.809208301063</v>
+        <v>20.45633560375766</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.21122281044593</v>
+        <v>25.77284502726361</v>
       </c>
       <c r="C16">
-        <v>9.039976309819483</v>
+        <v>14.97900947166711</v>
       </c>
       <c r="D16">
-        <v>13.20496506720858</v>
+        <v>8.779600296681862</v>
       </c>
       <c r="E16">
-        <v>13.35346327825651</v>
+        <v>7.535859859067289</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.696561905436655</v>
+        <v>2.091235646528209</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.85631738020928</v>
+        <v>17.00251111100211</v>
       </c>
       <c r="J16">
-        <v>8.331274052196116</v>
+        <v>5.460353750410547</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.62872890102998</v>
+        <v>8.262144048198085</v>
       </c>
       <c r="M16">
-        <v>18.53942558579096</v>
+        <v>15.71822690816347</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>30.86212587924499</v>
+        <v>20.33224975219169</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.02632144198541</v>
+        <v>25.22453259437089</v>
       </c>
       <c r="C17">
-        <v>8.893479303359758</v>
+        <v>14.69925131060621</v>
       </c>
       <c r="D17">
-        <v>13.20959857493498</v>
+        <v>8.726351155748596</v>
       </c>
       <c r="E17">
-        <v>13.3681806340611</v>
+        <v>7.574267892838611</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.697536279549179</v>
+        <v>2.094092389217979</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.90866321582489</v>
+        <v>17.07768404782877</v>
       </c>
       <c r="J17">
-        <v>8.329740191117752</v>
+        <v>5.451820486122897</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.62748431258155</v>
+        <v>8.201583046851166</v>
       </c>
       <c r="M17">
-        <v>18.49175228886281</v>
+        <v>15.467525283534</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>30.89653148818336</v>
+        <v>20.26331126450043</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.91938234863047</v>
+        <v>24.904392227383</v>
       </c>
       <c r="C18">
-        <v>8.807987288040209</v>
+        <v>14.53616437997754</v>
       </c>
       <c r="D18">
-        <v>13.21248558145158</v>
+        <v>8.696224560045323</v>
       </c>
       <c r="E18">
-        <v>13.37677280931967</v>
+        <v>7.596582826981431</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.698104495514244</v>
+        <v>2.095744236974588</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.93936235311532</v>
+        <v>17.12310612908405</v>
       </c>
       <c r="J18">
-        <v>8.328863516589244</v>
+        <v>5.446937222919476</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.62692055449925</v>
+        <v>8.166947335276509</v>
       </c>
       <c r="M18">
-        <v>18.46448982552527</v>
+        <v>15.32206486152864</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>30.91703305833689</v>
+        <v>20.22623360911621</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.88307697245342</v>
+        <v>24.79517659054583</v>
       </c>
       <c r="C19">
-        <v>8.778830689426547</v>
+        <v>14.48057170031414</v>
       </c>
       <c r="D19">
-        <v>13.21350119636961</v>
+        <v>8.686110064340619</v>
       </c>
       <c r="E19">
-        <v>13.37970383094688</v>
+        <v>7.604176708324085</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.698298222086319</v>
+        <v>2.096305061527656</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.94985803559511</v>
+        <v>17.13885161541036</v>
       </c>
       <c r="J19">
-        <v>8.328567648766017</v>
+        <v>5.445288012248704</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.62675583526648</v>
+        <v>8.155254617853846</v>
       </c>
       <c r="M19">
-        <v>18.45528691793577</v>
+        <v>15.27259989990728</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>30.92409674943949</v>
+        <v>20.21411549287122</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.04606625895473</v>
+        <v>25.28339386071942</v>
       </c>
       <c r="C20">
-        <v>8.909201758929381</v>
+        <v>14.72925732886025</v>
       </c>
       <c r="D20">
-        <v>13.20908236227227</v>
+        <v>8.731967734118875</v>
       </c>
       <c r="E20">
-        <v>13.36660079298145</v>
+        <v>7.570156148750495</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.697431750828107</v>
+        <v>2.093787390371348</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.90302971200505</v>
+        <v>17.06945354051245</v>
       </c>
       <c r="J20">
-        <v>8.32990289854297</v>
+        <v>5.452726274022796</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.62760106858652</v>
+        <v>8.208009544912102</v>
       </c>
       <c r="M20">
-        <v>18.49681097939081</v>
+        <v>15.49434423090968</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>30.89279519132686</v>
+        <v>20.27038198860754</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.58640452002781</v>
+        <v>26.8670345739646</v>
       </c>
       <c r="C21">
-        <v>9.332462693252431</v>
+        <v>15.53882134406118</v>
       </c>
       <c r="D21">
-        <v>13.19688673916985</v>
+        <v>8.892040931302622</v>
       </c>
       <c r="E21">
-        <v>13.32409382027236</v>
+        <v>7.458523153669663</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.694613361840042</v>
+        <v>2.085429639721048</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.7527607487558</v>
+        <v>16.86306535633366</v>
       </c>
       <c r="J21">
-        <v>8.334455319483475</v>
+        <v>5.478021528606146</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.63225533740921</v>
+        <v>8.387586028473018</v>
       </c>
       <c r="M21">
-        <v>18.63817123857568</v>
+        <v>16.22411716773615</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>30.79614769393269</v>
+        <v>20.49064668095378</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.93356466555061</v>
+        <v>27.8603222055435</v>
       </c>
       <c r="C22">
-        <v>9.597949664345306</v>
+        <v>16.04863879898234</v>
       </c>
       <c r="D22">
-        <v>13.19089048709652</v>
+        <v>9.001158238095837</v>
       </c>
       <c r="E22">
-        <v>13.29744033807675</v>
+        <v>7.387555163002444</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.692840256806262</v>
+        <v>2.080035873912041</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.65982893208976</v>
+        <v>16.74973651750346</v>
       </c>
       <c r="J22">
-        <v>8.337479247203976</v>
+        <v>5.494796177758894</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.63664285300005</v>
+        <v>8.506616926097752</v>
       </c>
       <c r="M22">
-        <v>18.73183675654931</v>
+        <v>16.68936216758517</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>30.73935689227978</v>
+        <v>20.65891823125373</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.74886038051601</v>
+        <v>27.33396658278057</v>
       </c>
       <c r="C23">
-        <v>9.457281034707782</v>
+        <v>15.77829644816083</v>
       </c>
       <c r="D23">
-        <v>13.19391027185004</v>
+        <v>8.942506527347096</v>
       </c>
       <c r="E23">
-        <v>13.31156289223888</v>
+        <v>7.42524990068349</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.69378031452272</v>
+        <v>2.082908826062797</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.70894483715</v>
+        <v>16.80814295007396</v>
       </c>
       <c r="J23">
-        <v>8.335860910150082</v>
+        <v>5.485819910664953</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.63417846345535</v>
+        <v>8.442939331086583</v>
       </c>
       <c r="M23">
-        <v>18.6817349925207</v>
+        <v>16.44214134497631</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>30.76908256559052</v>
+        <v>20.56681702735503</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.03714160235297</v>
+        <v>25.25679797818053</v>
       </c>
       <c r="C24">
-        <v>8.902097587169729</v>
+        <v>14.71569861796159</v>
       </c>
       <c r="D24">
-        <v>13.20931504694032</v>
+        <v>8.729426962435786</v>
       </c>
       <c r="E24">
-        <v>13.36731463111176</v>
+        <v>7.572014340478423</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.697478983227807</v>
+        <v>2.093925250759171</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.90557473518144</v>
+        <v>17.07316771010189</v>
       </c>
       <c r="J24">
-        <v>8.329829322425704</v>
+        <v>5.452316697073299</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.62754781034397</v>
+        <v>8.205103558395887</v>
       </c>
       <c r="M24">
-        <v>18.49452349059397</v>
+        <v>15.48222351795036</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>30.89448212452035</v>
+        <v>20.26717736847908</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.24744274367076</v>
+        <v>22.83365036022363</v>
       </c>
       <c r="C25">
-        <v>8.256349616495005</v>
+        <v>13.48630072849271</v>
       </c>
       <c r="D25">
-        <v>13.23441662641086</v>
+        <v>8.518709057241921</v>
       </c>
       <c r="E25">
-        <v>13.4323159016194</v>
+        <v>7.738879971690217</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.701766371335616</v>
+        <v>2.1061463755352</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.14026795534402</v>
+        <v>17.4415441359451</v>
       </c>
       <c r="J25">
-        <v>8.323536397502258</v>
+        <v>5.417118001249293</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.62621466088102</v>
+        <v>7.956172075650017</v>
       </c>
       <c r="M25">
-        <v>18.29869626668553</v>
+        <v>14.3989484825372</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.05696165639532</v>
+        <v>20.04149597149633</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.92691169526628</v>
+        <v>12.18887709225882</v>
       </c>
       <c r="C2">
-        <v>12.50942917882049</v>
+        <v>7.743016057036041</v>
       </c>
       <c r="D2">
-        <v>8.379710339643715</v>
+        <v>11.06793920407733</v>
       </c>
       <c r="E2">
-        <v>7.869159183708257</v>
+        <v>11.31695071228307</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.115481620931104</v>
+        <v>26.20153742683806</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.858443754166965</v>
       </c>
       <c r="I2">
-        <v>17.77379206804456</v>
+        <v>3.231242590103339</v>
       </c>
       <c r="J2">
-        <v>5.391904276133152</v>
+        <v>10.14354209799192</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.63349362972129</v>
       </c>
       <c r="L2">
-        <v>7.779947974704745</v>
+        <v>5.656615471351616</v>
       </c>
       <c r="M2">
-        <v>13.5636878998781</v>
+        <v>11.26084263690301</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.95128596776681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>11.98828046918194</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>16.87103704421687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.57764473040358</v>
+        <v>11.44854613227199</v>
       </c>
       <c r="C3">
-        <v>11.80304848846658</v>
+        <v>7.329582833975101</v>
       </c>
       <c r="D3">
-        <v>8.295401691337178</v>
+        <v>10.65799848798773</v>
       </c>
       <c r="E3">
-        <v>7.962116418604547</v>
+        <v>10.92761190164133</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.122039263684186</v>
+        <v>25.9433602289204</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.06955833854735</v>
       </c>
       <c r="I3">
-        <v>18.03264331284349</v>
+        <v>3.372103318752445</v>
       </c>
       <c r="J3">
-        <v>5.375209512735686</v>
+        <v>10.17149853057932</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.72037441365048</v>
       </c>
       <c r="L3">
-        <v>7.665208970587702</v>
+        <v>5.559468032421609</v>
       </c>
       <c r="M3">
-        <v>12.97662934995324</v>
+        <v>10.66336466921124</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.93340271799275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.42648914971579</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>16.85061714439779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7050851204264</v>
+        <v>10.96692891828984</v>
       </c>
       <c r="C4">
-        <v>11.34773141371531</v>
+        <v>7.066915469761874</v>
       </c>
       <c r="D4">
-        <v>8.248438914914306</v>
+        <v>10.40028252993237</v>
       </c>
       <c r="E4">
-        <v>8.021508807029351</v>
+        <v>10.68133717125933</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.126186023602964</v>
+        <v>25.79294492311507</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.204049131951931</v>
       </c>
       <c r="I4">
-        <v>18.20690371831851</v>
+        <v>3.462499393211468</v>
       </c>
       <c r="J4">
-        <v>5.365139355807543</v>
+        <v>10.19112430717582</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.77697723213958</v>
       </c>
       <c r="L4">
-        <v>7.597168439573822</v>
+        <v>5.497996451037037</v>
       </c>
       <c r="M4">
-        <v>12.60689367346888</v>
+        <v>10.27870563725954</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.94235337763884</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.06838094416463</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>16.84306473549562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33848506265309</v>
+        <v>10.76133440699632</v>
       </c>
       <c r="C5">
-        <v>11.15681862136419</v>
+        <v>6.967138345900725</v>
       </c>
       <c r="D5">
-        <v>8.230496071543191</v>
+        <v>10.29360695041826</v>
       </c>
       <c r="E5">
-        <v>8.046296303560768</v>
+        <v>10.57874066999369</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.127907003129605</v>
+        <v>25.72051734109258</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.26031077754554</v>
       </c>
       <c r="I5">
-        <v>18.28159334972652</v>
+        <v>3.502973506778792</v>
       </c>
       <c r="J5">
-        <v>5.361079337230024</v>
+        <v>10.19751082293547</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.79541933745543</v>
       </c>
       <c r="L5">
-        <v>7.570061882560471</v>
+        <v>5.472263752589102</v>
       </c>
       <c r="M5">
-        <v>12.45408130130865</v>
+        <v>10.11922510740422</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.95080228202478</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>10.9204267278379</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>16.83573267409921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.27694811336064</v>
+        <v>10.72365402279493</v>
       </c>
       <c r="C6">
-        <v>11.12479578562383</v>
+        <v>6.961990796556798</v>
       </c>
       <c r="D6">
-        <v>8.227588420609269</v>
+        <v>10.27547466071017</v>
       </c>
       <c r="E6">
-        <v>8.050447624494282</v>
+        <v>10.56096891049113</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.128194676246812</v>
+        <v>25.69252310462321</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.269992487523351</v>
       </c>
       <c r="I6">
-        <v>18.29421271094575</v>
+        <v>3.513149395561904</v>
       </c>
       <c r="J6">
-        <v>5.360407762425549</v>
+        <v>10.19589755209133</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.79190402011548</v>
       </c>
       <c r="L6">
-        <v>7.565598745398805</v>
+        <v>5.467683256170649</v>
       </c>
       <c r="M6">
-        <v>12.42858366939936</v>
+        <v>10.09451710228452</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.95248903805069</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10.89706716849945</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>16.82789216302908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.70018555216336</v>
+        <v>10.95581295530266</v>
       </c>
       <c r="C7">
-        <v>11.345178330492</v>
+        <v>7.096536362097296</v>
       </c>
       <c r="D7">
-        <v>8.248192112202814</v>
+        <v>10.39793852139762</v>
       </c>
       <c r="E7">
-        <v>8.021840729773011</v>
+        <v>10.67825892706103</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.126209106111604</v>
+        <v>25.74820892151616</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.205510879681995</v>
       </c>
       <c r="I7">
-        <v>18.2078963429119</v>
+        <v>3.472017767784242</v>
       </c>
       <c r="J7">
-        <v>5.365084426431151</v>
+        <v>10.18382620552019</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.75914810658055</v>
       </c>
       <c r="L7">
-        <v>7.596800340003755</v>
+        <v>5.496897437557798</v>
       </c>
       <c r="M7">
-        <v>12.60484119288881</v>
+        <v>10.28204565223236</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.94244816048954</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.07013573470653</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16.82472320887599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.47086737060219</v>
+        <v>11.92896435827404</v>
       </c>
       <c r="C8">
-        <v>12.27038306055055</v>
+        <v>7.64080574069813</v>
       </c>
       <c r="D8">
-        <v>8.349636750289498</v>
+        <v>10.92678895582982</v>
       </c>
       <c r="E8">
-        <v>7.900731360509271</v>
+        <v>11.18215172963965</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.117718264064782</v>
+        <v>26.05393219232953</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.931113243529422</v>
       </c>
       <c r="I8">
-        <v>17.85975261942349</v>
+        <v>3.29042814095913</v>
       </c>
       <c r="J8">
-        <v>5.386109369550122</v>
+        <v>10.14298448927053</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.63897048642317</v>
       </c>
       <c r="L8">
-        <v>7.739894793303415</v>
+        <v>5.622555286592911</v>
       </c>
       <c r="M8">
-        <v>13.36330245424389</v>
+        <v>11.06542879659158</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.94085705670359</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>11.80202856219448</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>16.83906089160016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.67464210647271</v>
+        <v>13.63525414563557</v>
       </c>
       <c r="C9">
-        <v>13.91157483567221</v>
+        <v>8.585898955847956</v>
       </c>
       <c r="D9">
-        <v>8.587159591028607</v>
+        <v>11.91241830051178</v>
       </c>
       <c r="E9">
-        <v>7.681523433359256</v>
+        <v>12.11202164229713</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.10198026832771</v>
+        <v>26.79472206400099</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.42975219316103</v>
       </c>
       <c r="I9">
-        <v>17.30735229706717</v>
+        <v>2.950269213702248</v>
       </c>
       <c r="J9">
-        <v>5.428858996259488</v>
+        <v>10.09608866466617</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.46218651112916</v>
       </c>
       <c r="L9">
-        <v>8.038964618459049</v>
+        <v>5.855552335385605</v>
       </c>
       <c r="M9">
-        <v>14.76997637327407</v>
+        <v>12.44846511476499</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.10517815502107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.12131522200492</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>16.94035305846289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.83476794976598</v>
+        <v>14.76953506171511</v>
       </c>
       <c r="C10">
-        <v>15.01063703263962</v>
+        <v>9.235814528441198</v>
       </c>
       <c r="D10">
-        <v>8.785744402821512</v>
+        <v>12.48480391333859</v>
       </c>
       <c r="E10">
-        <v>7.531507530404201</v>
+        <v>12.55745285076294</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.090910824479587</v>
+        <v>27.1563895551182</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.115842039891899</v>
       </c>
       <c r="I10">
-        <v>16.99423625696186</v>
+        <v>2.728574849848383</v>
       </c>
       <c r="J10">
-        <v>5.461330891076617</v>
+        <v>10.0366801461578</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.27882566975484</v>
       </c>
       <c r="L10">
-        <v>8.269080895814698</v>
+        <v>5.956253204472604</v>
       </c>
       <c r="M10">
-        <v>15.74666073370575</v>
+        <v>13.38156796635263</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.34046970557948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>13.91571365401615</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16.9471559235544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.76685968998986</v>
+        <v>15.38375180850305</v>
       </c>
       <c r="C11">
-        <v>15.48748864954231</v>
+        <v>9.458938332865339</v>
       </c>
       <c r="D11">
-        <v>8.881406751847324</v>
+        <v>11.76446323158864</v>
       </c>
       <c r="E11">
-        <v>7.465640809159807</v>
+        <v>11.11702996718764</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.085967068031068</v>
+        <v>25.52715044135722</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.014915216371495</v>
       </c>
       <c r="I11">
-        <v>16.87521675083078</v>
+        <v>2.684382297820729</v>
       </c>
       <c r="J11">
-        <v>5.476368638055132</v>
+        <v>9.704796047928262</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.64457935705278</v>
       </c>
       <c r="L11">
-        <v>8.375851230366052</v>
+        <v>5.554830045608725</v>
       </c>
       <c r="M11">
-        <v>16.17750492526105</v>
+        <v>13.84070294948626</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.47497818339638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.37477996548687</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>16.19150201756208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.11265716784713</v>
+        <v>15.68489188445793</v>
       </c>
       <c r="C12">
-        <v>15.66475206173418</v>
+        <v>9.476367436478782</v>
       </c>
       <c r="D12">
-        <v>8.918403579097696</v>
+        <v>11.03197554280453</v>
       </c>
       <c r="E12">
-        <v>7.441039975243542</v>
+        <v>9.88649485357889</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.084106846986862</v>
+        <v>24.13230147902159</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.332251424037522</v>
       </c>
       <c r="I12">
-        <v>16.83381796287084</v>
+        <v>2.672973421501455</v>
       </c>
       <c r="J12">
-        <v>5.482104462404596</v>
+        <v>9.45016268325724</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.18989386201749</v>
       </c>
       <c r="L12">
-        <v>8.41656972734034</v>
+        <v>5.321561820671769</v>
       </c>
       <c r="M12">
-        <v>16.33865166606686</v>
+        <v>14.03341920293482</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.53006954866124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.73955609854166</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>15.58162661982954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.03850045034966</v>
+        <v>15.76301437409595</v>
       </c>
       <c r="C13">
-        <v>15.6267220923343</v>
+        <v>9.374978822084397</v>
       </c>
       <c r="D13">
-        <v>8.910401240466646</v>
+        <v>10.23085226844762</v>
       </c>
       <c r="E13">
-        <v>7.446323016062662</v>
+        <v>8.760315244673549</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.084506973104204</v>
+        <v>22.76367553792136</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.725183851396003</v>
       </c>
       <c r="I13">
-        <v>16.84256555079657</v>
+        <v>2.701298013462488</v>
       </c>
       <c r="J13">
-        <v>5.480867257880735</v>
+        <v>9.229254569046521</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.82162939767373</v>
       </c>
       <c r="L13">
-        <v>8.407787707568627</v>
+        <v>5.214470854588912</v>
       </c>
       <c r="M13">
-        <v>16.30403590082125</v>
+        <v>14.04488604262822</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.51801658339533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.98215373411309</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>15.02089072229901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.79545164252967</v>
+        <v>15.71621342326097</v>
       </c>
       <c r="C14">
-        <v>15.50213843635315</v>
+        <v>9.256664986254433</v>
       </c>
       <c r="D14">
-        <v>8.884435005929005</v>
+        <v>9.634644538231333</v>
       </c>
       <c r="E14">
-        <v>7.463610039666335</v>
+        <v>8.063301837867282</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.085813796562029</v>
+        <v>21.81468517019647</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.721383938629688</v>
       </c>
       <c r="I14">
-        <v>16.8717354416126</v>
+        <v>2.742016254959613</v>
       </c>
       <c r="J14">
-        <v>5.476839680047303</v>
+        <v>9.090356758294051</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.60519814590029</v>
       </c>
       <c r="L14">
-        <v>8.379195487207143</v>
+        <v>5.218761005323878</v>
       </c>
       <c r="M14">
-        <v>16.19080307335517</v>
+        <v>13.972570958849</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.47942613332391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.38945966292448</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>14.65161365240385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.64564728402931</v>
+        <v>15.65401942023299</v>
       </c>
       <c r="C15">
-        <v>15.42539689059209</v>
+        <v>9.21181545872539</v>
       </c>
       <c r="D15">
-        <v>8.868630593018555</v>
+        <v>9.474453019625924</v>
       </c>
       <c r="E15">
-        <v>7.474243311932686</v>
+        <v>7.907691226169616</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.086615768621197</v>
+        <v>21.57801445795</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.955011779638292</v>
       </c>
       <c r="I15">
-        <v>16.89009039035345</v>
+        <v>2.765314777411974</v>
       </c>
       <c r="J15">
-        <v>5.474378155488753</v>
+        <v>9.061595657870251</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.56479377581669</v>
       </c>
       <c r="L15">
-        <v>8.361718915996963</v>
+        <v>5.22801060701931</v>
       </c>
       <c r="M15">
-        <v>16.12118188595929</v>
+        <v>13.91742364072694</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.45633560375766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.2196130049415</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>14.56720680438195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.77284502726361</v>
+        <v>15.17864586905785</v>
       </c>
       <c r="C16">
-        <v>14.97900947166711</v>
+        <v>8.974137221215335</v>
       </c>
       <c r="D16">
-        <v>8.779600296681862</v>
+        <v>9.358718170818564</v>
       </c>
       <c r="E16">
-        <v>7.535859859067289</v>
+        <v>7.909262113917705</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.091235646528209</v>
+        <v>21.66082866640263</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.771446288568568</v>
       </c>
       <c r="I16">
-        <v>17.00251111100211</v>
+        <v>2.859461473613417</v>
       </c>
       <c r="J16">
-        <v>5.460353750410547</v>
+        <v>9.128890296837993</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>13.71272342676946</v>
       </c>
       <c r="L16">
-        <v>8.262144048198085</v>
+        <v>5.198433020904384</v>
       </c>
       <c r="M16">
-        <v>15.71822690816347</v>
+        <v>13.53629994819451</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.33224975219169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.9991333856961</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14.66899497720895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.22453259437089</v>
+        <v>14.83106808238074</v>
       </c>
       <c r="C17">
-        <v>14.69925131060621</v>
+        <v>8.855355230650549</v>
       </c>
       <c r="D17">
-        <v>8.726351155748596</v>
+        <v>9.594659461012805</v>
       </c>
       <c r="E17">
-        <v>7.574267892838611</v>
+        <v>8.262035192208925</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.094092389217979</v>
+        <v>22.22612846791113</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.074206714605848</v>
       </c>
       <c r="I17">
-        <v>17.07768404782877</v>
+        <v>2.910978072725645</v>
       </c>
       <c r="J17">
-        <v>5.451820486122897</v>
+        <v>9.253077790896963</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>13.9368125679744</v>
       </c>
       <c r="L17">
-        <v>8.201583046851166</v>
+        <v>5.160497345275726</v>
       </c>
       <c r="M17">
-        <v>15.467525283534</v>
+        <v>13.27825029761571</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.26331126450043</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.15586799476897</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>14.94028550603373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.904392227383</v>
+        <v>14.56740915145712</v>
       </c>
       <c r="C18">
-        <v>14.53616437997754</v>
+        <v>8.806780629651826</v>
       </c>
       <c r="D18">
-        <v>8.696224560045323</v>
+        <v>10.1648590968697</v>
       </c>
       <c r="E18">
-        <v>7.596582826981431</v>
+        <v>9.063479317657528</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.095744236974588</v>
+        <v>23.31145052496125</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.892525761937803</v>
       </c>
       <c r="I18">
-        <v>17.12310612908405</v>
+        <v>2.919593612206682</v>
       </c>
       <c r="J18">
-        <v>5.446937222919476</v>
+        <v>9.448234724532107</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.27521665330654</v>
       </c>
       <c r="L18">
-        <v>8.166947335276509</v>
+        <v>5.186704480393641</v>
       </c>
       <c r="M18">
-        <v>15.32206486152864</v>
+        <v>13.09861637773949</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.22623360911621</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.6541552180277</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>15.40743763871923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.79517659054583</v>
+        <v>14.38357073655558</v>
       </c>
       <c r="C19">
-        <v>14.48057170031414</v>
+        <v>8.868756378459555</v>
       </c>
       <c r="D19">
-        <v>8.686110064340619</v>
+        <v>10.96073304570581</v>
       </c>
       <c r="E19">
-        <v>7.604176708324085</v>
+        <v>10.27465644373932</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.096305061527656</v>
+        <v>24.68598830974102</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.533158749793608</v>
       </c>
       <c r="I19">
-        <v>17.13885161541036</v>
+        <v>2.910482945441555</v>
       </c>
       <c r="J19">
-        <v>5.445288012248704</v>
+        <v>9.680398928925003</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.67360647187663</v>
       </c>
       <c r="L19">
-        <v>8.155254617853846</v>
+        <v>5.369419552928909</v>
       </c>
       <c r="M19">
-        <v>15.27259989990728</v>
+        <v>13.00812196971816</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.21411549287122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.38898274194853</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>15.98230736447099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.28339386071942</v>
+        <v>14.46102498839912</v>
       </c>
       <c r="C20">
-        <v>14.72925732886025</v>
+        <v>9.146041789567411</v>
       </c>
       <c r="D20">
-        <v>8.731967734118875</v>
+        <v>12.32931348680396</v>
       </c>
       <c r="E20">
-        <v>7.570156148750495</v>
+        <v>12.42932326057675</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.093787390371348</v>
+        <v>26.92270254627805</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.19832543120949</v>
       </c>
       <c r="I20">
-        <v>17.06945354051245</v>
+        <v>2.816753671465662</v>
       </c>
       <c r="J20">
-        <v>5.452726274022796</v>
+        <v>10.02763716594624</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.26804544542686</v>
       </c>
       <c r="L20">
-        <v>8.208009544912102</v>
+        <v>5.925512626164283</v>
       </c>
       <c r="M20">
-        <v>15.49434423090968</v>
+        <v>13.15718459574907</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.27038198860754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>13.71617525285387</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>16.88527866779551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.8670345739646</v>
+        <v>15.27061290631229</v>
       </c>
       <c r="C21">
-        <v>15.53882134406118</v>
+        <v>9.628212835797086</v>
       </c>
       <c r="D21">
-        <v>8.892040931302622</v>
+        <v>12.93146786958612</v>
       </c>
       <c r="E21">
-        <v>7.458523153669663</v>
+        <v>13.06216557502774</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.085429639721048</v>
+        <v>27.55581596677307</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.915654922920736</v>
       </c>
       <c r="I21">
-        <v>16.86306535633366</v>
+        <v>2.640286441216053</v>
       </c>
       <c r="J21">
-        <v>5.478021528606146</v>
+        <v>10.04492177246759</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.24172666758364</v>
       </c>
       <c r="L21">
-        <v>8.387586028473018</v>
+        <v>6.095068147655678</v>
       </c>
       <c r="M21">
-        <v>16.22411716773615</v>
+        <v>13.83200927988482</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.49064668095378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>14.46035501131991</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>17.04475279222187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.8603222055435</v>
+        <v>15.79174503987707</v>
       </c>
       <c r="C22">
-        <v>16.04863879898234</v>
+        <v>9.898934735961305</v>
       </c>
       <c r="D22">
-        <v>9.001158238095837</v>
+        <v>13.25934513922271</v>
       </c>
       <c r="E22">
-        <v>7.387555163002444</v>
+        <v>13.36820353058328</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.080035873912041</v>
+        <v>27.92421188777218</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.749199214678954</v>
       </c>
       <c r="I22">
-        <v>16.74973651750346</v>
+        <v>2.517317427218343</v>
       </c>
       <c r="J22">
-        <v>5.494796177758894</v>
+        <v>10.05046451016045</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.21943671874085</v>
       </c>
       <c r="L22">
-        <v>8.506616926097752</v>
+        <v>6.1735982861026</v>
       </c>
       <c r="M22">
-        <v>16.68936216758517</v>
+        <v>14.25351357317632</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.65891823125373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>14.87534360329755</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>17.13291783071016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.33396658278057</v>
+        <v>15.52305125312058</v>
       </c>
       <c r="C23">
-        <v>15.77829644816083</v>
+        <v>9.727158081275151</v>
       </c>
       <c r="D23">
-        <v>8.942506527347096</v>
+        <v>13.08593411182026</v>
       </c>
       <c r="E23">
-        <v>7.42524990068349</v>
+        <v>13.20717462224997</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.082908826062797</v>
+        <v>27.77378632261184</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.83706770448997</v>
       </c>
       <c r="I23">
-        <v>16.80814295007396</v>
+        <v>2.570210652168975</v>
       </c>
       <c r="J23">
-        <v>5.485819910664953</v>
+        <v>10.05562441792505</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.25182401940187</v>
       </c>
       <c r="L23">
-        <v>8.442939331086583</v>
+        <v>6.132554080295805</v>
       </c>
       <c r="M23">
-        <v>16.44214134497631</v>
+        <v>14.02502395613836</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.56681702735503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>14.65183791919995</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17.10572601499109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.25679797818053</v>
+        <v>14.44652274985902</v>
       </c>
       <c r="C24">
-        <v>14.71569861796159</v>
+        <v>9.102111462440252</v>
       </c>
       <c r="D24">
-        <v>8.729426962435786</v>
+        <v>12.41128095758023</v>
       </c>
       <c r="E24">
-        <v>7.572014340478423</v>
+        <v>12.57792094648515</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.093925250759171</v>
+        <v>27.14688045508034</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.178212534804703</v>
       </c>
       <c r="I24">
-        <v>17.07316771010189</v>
+        <v>2.797174106683337</v>
       </c>
       <c r="J24">
-        <v>5.452316697073299</v>
+        <v>10.06770429300668</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.34977912574597</v>
       </c>
       <c r="L24">
-        <v>8.205103558395887</v>
+        <v>5.972580649391049</v>
       </c>
       <c r="M24">
-        <v>15.48222351795036</v>
+        <v>13.13338580557098</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.26717736847908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>13.78156242994773</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>16.98247595080637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.83365036022363</v>
+        <v>13.18406396643557</v>
       </c>
       <c r="C25">
-        <v>13.48630072849271</v>
+        <v>8.38652155201979</v>
       </c>
       <c r="D25">
-        <v>8.518709057241921</v>
+        <v>11.65071193399481</v>
       </c>
       <c r="E25">
-        <v>7.738879971690217</v>
+        <v>11.86484516958351</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.1061463755352</v>
+        <v>26.51174898470315</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.562533438098695</v>
       </c>
       <c r="I25">
-        <v>17.4415441359451</v>
+        <v>3.055602929670679</v>
       </c>
       <c r="J25">
-        <v>5.417118001249293</v>
+        <v>10.09346599526151</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.47476465530868</v>
       </c>
       <c r="L25">
-        <v>7.956172075650017</v>
+        <v>5.79291342579736</v>
       </c>
       <c r="M25">
-        <v>14.3989484825372</v>
+        <v>12.09877225199831</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.04149597149633</v>
+        <v>12.78265527982104</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>16.87624820006849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.18887709225882</v>
+        <v>12.17956015310805</v>
       </c>
       <c r="C2">
-        <v>7.743016057036041</v>
+        <v>7.956266321986645</v>
       </c>
       <c r="D2">
-        <v>11.06793920407733</v>
+        <v>11.08301044842632</v>
       </c>
       <c r="E2">
-        <v>11.31695071228307</v>
+        <v>11.35289040398093</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.20153742683806</v>
+        <v>24.78748023786407</v>
       </c>
       <c r="H2">
-        <v>2.858443754166965</v>
+        <v>2.787107254936912</v>
       </c>
       <c r="I2">
-        <v>3.231242590103339</v>
+        <v>3.082680440339228</v>
       </c>
       <c r="J2">
-        <v>10.14354209799192</v>
+        <v>10.14792837057044</v>
       </c>
       <c r="K2">
-        <v>15.63349362972129</v>
+        <v>14.9862185852594</v>
       </c>
       <c r="L2">
-        <v>5.656615471351616</v>
+        <v>12.3155168874121</v>
       </c>
       <c r="M2">
-        <v>11.26084263690301</v>
+        <v>9.830340674773829</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.685615471846693</v>
       </c>
       <c r="O2">
-        <v>11.98828046918194</v>
+        <v>11.36102696187043</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>16.87103704421687</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.06692580114957</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.37297865969185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.44854613227199</v>
+        <v>11.47272156630627</v>
       </c>
       <c r="C3">
-        <v>7.329582833975101</v>
+        <v>7.436219411614117</v>
       </c>
       <c r="D3">
-        <v>10.65799848798773</v>
+        <v>10.67912925672077</v>
       </c>
       <c r="E3">
-        <v>10.92761190164133</v>
+        <v>10.9758431463124</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.9433602289204</v>
+        <v>24.66546820771689</v>
       </c>
       <c r="H3">
-        <v>3.06955833854735</v>
+        <v>2.989007334836579</v>
       </c>
       <c r="I3">
-        <v>3.372103318752445</v>
+        <v>3.207432777130055</v>
       </c>
       <c r="J3">
-        <v>10.17149853057932</v>
+        <v>10.15453655217118</v>
       </c>
       <c r="K3">
-        <v>15.72037441365048</v>
+        <v>15.10187114040074</v>
       </c>
       <c r="L3">
-        <v>5.559468032421609</v>
+        <v>12.46993747139867</v>
       </c>
       <c r="M3">
-        <v>10.66336466921124</v>
+        <v>9.883109914761523</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.594857372232534</v>
       </c>
       <c r="O3">
-        <v>11.42648914971579</v>
+        <v>10.75104848917874</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>16.85061714439779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.49629183068427</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.38779642869316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.96692891828984</v>
+        <v>11.01342906493295</v>
       </c>
       <c r="C4">
-        <v>7.066915469761874</v>
+        <v>7.10390700792827</v>
       </c>
       <c r="D4">
-        <v>10.40028252993237</v>
+        <v>10.42541753760872</v>
       </c>
       <c r="E4">
-        <v>10.68133717125933</v>
+        <v>10.73764577756135</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.79294492311507</v>
+        <v>24.60043471751301</v>
       </c>
       <c r="H4">
-        <v>3.204049131951931</v>
+        <v>3.117669417533917</v>
       </c>
       <c r="I4">
-        <v>3.462499393211468</v>
+        <v>3.287801528564692</v>
       </c>
       <c r="J4">
-        <v>10.19112430717582</v>
+        <v>10.1593968365535</v>
       </c>
       <c r="K4">
-        <v>15.77697723213958</v>
+        <v>15.17505985499552</v>
       </c>
       <c r="L4">
-        <v>5.497996451037037</v>
+        <v>12.5667678822816</v>
       </c>
       <c r="M4">
-        <v>10.27870563725954</v>
+        <v>9.931600135614426</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.537463413302007</v>
       </c>
       <c r="O4">
-        <v>11.06838094416463</v>
+        <v>10.35842405679805</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.84306473549562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.13243093654709</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.40090518149904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.76133440699632</v>
+        <v>10.81748264048666</v>
       </c>
       <c r="C5">
-        <v>6.967138345900725</v>
+        <v>6.975243408596683</v>
       </c>
       <c r="D5">
-        <v>10.29360695041826</v>
+        <v>10.32045459825381</v>
       </c>
       <c r="E5">
-        <v>10.57874066999369</v>
+        <v>10.63849220627216</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>25.72051734109258</v>
+        <v>24.56363318059271</v>
       </c>
       <c r="H5">
-        <v>3.26031077754554</v>
+        <v>3.171501314396744</v>
       </c>
       <c r="I5">
-        <v>3.502973506778792</v>
+        <v>3.324616883119416</v>
       </c>
       <c r="J5">
-        <v>10.19751082293547</v>
+        <v>10.15939283544332</v>
       </c>
       <c r="K5">
-        <v>15.79541933745543</v>
+        <v>15.20031810912754</v>
       </c>
       <c r="L5">
-        <v>5.472263752589102</v>
+        <v>12.60175764689092</v>
       </c>
       <c r="M5">
-        <v>10.11922510740422</v>
+        <v>9.952681026232982</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.513440513379731</v>
       </c>
       <c r="O5">
-        <v>10.9204267278379</v>
+        <v>10.19560249557025</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>16.83573267409921</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>10.98202523373884</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.40195824652696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.72365402279493</v>
+        <v>10.78154367643144</v>
       </c>
       <c r="C6">
-        <v>6.961990796556798</v>
+        <v>6.965893066088261</v>
       </c>
       <c r="D6">
-        <v>10.27547466071017</v>
+        <v>10.30262280196957</v>
       </c>
       <c r="E6">
-        <v>10.56096891049113</v>
+        <v>10.62132347449649</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>25.69252310462321</v>
+        <v>24.54214351092759</v>
       </c>
       <c r="H6">
-        <v>3.269992487523351</v>
+        <v>3.180764345803906</v>
       </c>
       <c r="I6">
-        <v>3.513149395561904</v>
+        <v>3.33479395687251</v>
       </c>
       <c r="J6">
-        <v>10.19589755209133</v>
+        <v>10.15673554854535</v>
       </c>
       <c r="K6">
-        <v>15.79190402011548</v>
+        <v>15.19831442177506</v>
       </c>
       <c r="L6">
-        <v>5.467683256170649</v>
+        <v>12.60152681994824</v>
       </c>
       <c r="M6">
-        <v>10.09451710228452</v>
+        <v>9.953147059735054</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.509158024418452</v>
       </c>
       <c r="O6">
-        <v>10.89706716849945</v>
+        <v>10.17029592809606</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16.82789216302908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>10.95821541613836</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.39575642451087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.95581295530266</v>
+        <v>11.00357952963961</v>
       </c>
       <c r="C7">
-        <v>7.096536362097296</v>
+        <v>7.129580166139476</v>
       </c>
       <c r="D7">
-        <v>10.39793852139762</v>
+        <v>10.42298575174055</v>
       </c>
       <c r="E7">
-        <v>10.67825892706103</v>
+        <v>10.73433587913802</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.74820892151616</v>
+        <v>24.62135107610328</v>
       </c>
       <c r="H7">
-        <v>3.205510879681995</v>
+        <v>3.119590554687853</v>
       </c>
       <c r="I7">
-        <v>3.472017767784242</v>
+        <v>3.29935926783115</v>
       </c>
       <c r="J7">
-        <v>10.18382620552019</v>
+        <v>10.1192703882084</v>
       </c>
       <c r="K7">
-        <v>15.75914810658055</v>
+        <v>15.15183948228744</v>
       </c>
       <c r="L7">
-        <v>5.496897437557798</v>
+        <v>12.54481680943369</v>
       </c>
       <c r="M7">
-        <v>10.28204565223236</v>
+        <v>9.918819184729596</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.536153258836677</v>
       </c>
       <c r="O7">
-        <v>11.07013573470653</v>
+        <v>10.36036939120561</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.82472320887599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.13355118930902</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.37324382033351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.92896435827404</v>
+        <v>11.9338428863</v>
       </c>
       <c r="C8">
-        <v>7.64080574069813</v>
+        <v>7.803768179093479</v>
       </c>
       <c r="D8">
-        <v>10.92678895582982</v>
+        <v>10.9435324387423</v>
       </c>
       <c r="E8">
-        <v>11.18215172963965</v>
+        <v>11.22132812733255</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.05393219232953</v>
+        <v>24.89958240267525</v>
       </c>
       <c r="H8">
-        <v>2.931113243529422</v>
+        <v>2.858203465889118</v>
       </c>
       <c r="I8">
-        <v>3.29042814095913</v>
+        <v>3.139879204668731</v>
       </c>
       <c r="J8">
-        <v>10.14298448927053</v>
+        <v>10.03359591405723</v>
       </c>
       <c r="K8">
-        <v>15.63897048642317</v>
+        <v>14.98198334372804</v>
       </c>
       <c r="L8">
-        <v>5.622555286592911</v>
+        <v>12.33010886990239</v>
       </c>
       <c r="M8">
-        <v>11.06542879659158</v>
+        <v>9.816975937650094</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.652970627105501</v>
       </c>
       <c r="O8">
-        <v>11.80202856219448</v>
+        <v>11.15742255802652</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16.83906089160016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.87596889943066</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.32103988136868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.63525414563557</v>
+        <v>13.5657643772306</v>
       </c>
       <c r="C9">
-        <v>8.585898955847956</v>
+        <v>8.987465164269585</v>
       </c>
       <c r="D9">
-        <v>11.91241830051178</v>
+        <v>11.9155623235039</v>
       </c>
       <c r="E9">
-        <v>12.11202164229713</v>
+        <v>12.1233917026303</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.79472206400099</v>
+        <v>25.36598815115621</v>
       </c>
       <c r="H9">
-        <v>2.42975219316103</v>
+        <v>2.379219546040135</v>
       </c>
       <c r="I9">
-        <v>2.950269213702248</v>
+        <v>2.837717918019704</v>
       </c>
       <c r="J9">
-        <v>10.09608866466617</v>
+        <v>10.00153303732752</v>
       </c>
       <c r="K9">
-        <v>15.46218651112916</v>
+        <v>14.72033206278422</v>
       </c>
       <c r="L9">
-        <v>5.855552335385605</v>
+        <v>11.97310567766793</v>
       </c>
       <c r="M9">
-        <v>12.44846511476499</v>
+        <v>9.779969822118479</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.870774400999999</v>
       </c>
       <c r="O9">
-        <v>13.12131522200492</v>
+        <v>12.56928689478722</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16.94035305846289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.21513086246541</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.31976917623514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.76953506171511</v>
+        <v>14.65946426921661</v>
       </c>
       <c r="C10">
-        <v>9.235814528441198</v>
+        <v>9.758597589564859</v>
       </c>
       <c r="D10">
-        <v>12.48480391333859</v>
+        <v>12.47921052971071</v>
       </c>
       <c r="E10">
-        <v>12.55745285076294</v>
+        <v>12.55081954550644</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.1563895551182</v>
+        <v>25.92212445253796</v>
       </c>
       <c r="H10">
-        <v>2.115842039891899</v>
+        <v>2.083159687536116</v>
       </c>
       <c r="I10">
-        <v>2.728574849848383</v>
+        <v>2.646125575356832</v>
       </c>
       <c r="J10">
-        <v>10.0366801461578</v>
+        <v>9.77222694524392</v>
       </c>
       <c r="K10">
-        <v>15.27882566975484</v>
+        <v>14.4446482244859</v>
       </c>
       <c r="L10">
-        <v>5.956253204472604</v>
+        <v>11.653526459013</v>
       </c>
       <c r="M10">
-        <v>13.38156796635263</v>
+        <v>9.753351286059809</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.960685976528453</v>
       </c>
       <c r="O10">
-        <v>13.91571365401615</v>
+        <v>13.51423492171226</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16.9471559235544</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.01833427992824</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>16.20037890135446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.38375180850305</v>
+        <v>15.28631607565814</v>
       </c>
       <c r="C11">
-        <v>9.458938332865339</v>
+        <v>9.901842807086277</v>
       </c>
       <c r="D11">
-        <v>11.76446323158864</v>
+        <v>11.75773219353571</v>
       </c>
       <c r="E11">
-        <v>11.11702996718764</v>
+        <v>11.10912363534139</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>25.52715044135722</v>
+        <v>25.14455299607772</v>
       </c>
       <c r="H11">
-        <v>3.014915216371495</v>
+        <v>2.997801095905083</v>
       </c>
       <c r="I11">
-        <v>2.684382297820729</v>
+        <v>2.617532677580474</v>
       </c>
       <c r="J11">
-        <v>9.704796047928262</v>
+        <v>9.175144747123174</v>
       </c>
       <c r="K11">
-        <v>14.64457935705278</v>
+        <v>13.81831424034279</v>
       </c>
       <c r="L11">
-        <v>5.554830045608725</v>
+        <v>11.17744120287499</v>
       </c>
       <c r="M11">
-        <v>13.84070294948626</v>
+        <v>9.316362139953812</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.558186435358707</v>
       </c>
       <c r="O11">
-        <v>13.37477996548687</v>
+        <v>13.95401312551811</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16.19150201756208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.46551246912061</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>15.38436940659755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.68489188445793</v>
+        <v>15.60380720695891</v>
       </c>
       <c r="C12">
-        <v>9.476367436478782</v>
+        <v>9.839310980359379</v>
       </c>
       <c r="D12">
-        <v>11.03197554280453</v>
+        <v>11.02618205016955</v>
       </c>
       <c r="E12">
-        <v>9.88649485357889</v>
+        <v>9.881676215468636</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>24.13230147902159</v>
+        <v>24.18028747037441</v>
       </c>
       <c r="H12">
-        <v>4.332251424037522</v>
+        <v>4.321248995319239</v>
       </c>
       <c r="I12">
-        <v>2.672973421501455</v>
+        <v>2.608956859061021</v>
       </c>
       <c r="J12">
-        <v>9.45016268325724</v>
+        <v>8.876305405005903</v>
       </c>
       <c r="K12">
-        <v>14.18989386201749</v>
+        <v>13.41536791218491</v>
       </c>
       <c r="L12">
-        <v>5.321561820671769</v>
+        <v>10.90214927340787</v>
       </c>
       <c r="M12">
-        <v>14.03341920293482</v>
+        <v>8.992680782335762</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.326384228167709</v>
       </c>
       <c r="O12">
-        <v>12.73955609854166</v>
+        <v>14.13096328298815</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15.58162661982954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.82017630180554</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>14.790113142614</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.76301437409595</v>
+        <v>15.70063702332318</v>
       </c>
       <c r="C13">
-        <v>9.374978822084397</v>
+        <v>9.662240446417988</v>
       </c>
       <c r="D13">
-        <v>10.23085226844762</v>
+        <v>10.22786235911902</v>
       </c>
       <c r="E13">
-        <v>8.760315244673549</v>
+        <v>8.763581735117926</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>22.76367553792136</v>
+        <v>22.79081701540446</v>
       </c>
       <c r="H13">
-        <v>5.725183851396003</v>
+        <v>5.715423668937364</v>
       </c>
       <c r="I13">
-        <v>2.701298013462488</v>
+        <v>2.632683411597316</v>
       </c>
       <c r="J13">
-        <v>9.229254569046521</v>
+        <v>8.773894980235458</v>
       </c>
       <c r="K13">
-        <v>13.82162939767373</v>
+        <v>13.14292712106601</v>
       </c>
       <c r="L13">
-        <v>5.214470854588912</v>
+        <v>10.73406135842511</v>
       </c>
       <c r="M13">
-        <v>14.04488604262822</v>
+        <v>8.734893044262423</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.223312539549807</v>
       </c>
       <c r="O13">
-        <v>11.98215373411309</v>
+        <v>14.13020998341156</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15.02089072229901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.0539689197108</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>14.3226427925802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.71621342326097</v>
+        <v>15.66828411696994</v>
       </c>
       <c r="C14">
-        <v>9.256664986254433</v>
+        <v>9.4914871361299</v>
       </c>
       <c r="D14">
-        <v>9.634644538231333</v>
+        <v>9.634562290688645</v>
       </c>
       <c r="E14">
-        <v>8.063301837867282</v>
+        <v>8.075086149918118</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>21.81468517019647</v>
+        <v>21.64258689845207</v>
       </c>
       <c r="H14">
-        <v>6.721383938629688</v>
+        <v>6.711346040383469</v>
       </c>
       <c r="I14">
-        <v>2.742016254959613</v>
+        <v>2.667488198466573</v>
       </c>
       <c r="J14">
-        <v>9.090356758294051</v>
+        <v>8.769168217062994</v>
       </c>
       <c r="K14">
-        <v>13.60519814590029</v>
+        <v>13.00706778124264</v>
       </c>
       <c r="L14">
-        <v>5.218761005323878</v>
+        <v>10.65617701278598</v>
       </c>
       <c r="M14">
-        <v>13.972570958849</v>
+        <v>8.586596737972563</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.231383046202827</v>
       </c>
       <c r="O14">
-        <v>11.38945966292448</v>
+        <v>14.05063368448023</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14.65161365240385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.45541689218186</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>14.04791923251491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.65401942023299</v>
+        <v>15.61034704587589</v>
       </c>
       <c r="C15">
-        <v>9.21181545872539</v>
+        <v>9.434061268400651</v>
       </c>
       <c r="D15">
-        <v>9.474453019625924</v>
+        <v>9.475539742257709</v>
       </c>
       <c r="E15">
-        <v>7.907691226169616</v>
+        <v>7.922818279437823</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>21.57801445795</v>
+        <v>21.28431187367302</v>
       </c>
       <c r="H15">
-        <v>6.955011779638292</v>
+        <v>6.94447209171249</v>
       </c>
       <c r="I15">
-        <v>2.765314777411974</v>
+        <v>2.688592368532425</v>
       </c>
       <c r="J15">
-        <v>9.061595657870251</v>
+        <v>8.795227788684681</v>
       </c>
       <c r="K15">
-        <v>13.56479377581669</v>
+        <v>12.99253868790037</v>
       </c>
       <c r="L15">
-        <v>5.22801060701931</v>
+        <v>10.65014438367762</v>
       </c>
       <c r="M15">
-        <v>13.91742364072694</v>
+        <v>8.560680382987551</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.242135224730169</v>
       </c>
       <c r="O15">
-        <v>11.2196130049415</v>
+        <v>13.99429811215408</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14.56720680438195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.28423731902794</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.99891168419162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.17864586905785</v>
+        <v>15.14210573601035</v>
       </c>
       <c r="C16">
-        <v>8.974137221215335</v>
+        <v>9.193581403188473</v>
       </c>
       <c r="D16">
-        <v>9.358718170818564</v>
+        <v>9.363949570374107</v>
       </c>
       <c r="E16">
-        <v>7.909262113917705</v>
+        <v>7.935165203642888</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>21.66082866640263</v>
+        <v>20.78549662915757</v>
       </c>
       <c r="H16">
-        <v>6.771446288568568</v>
+        <v>6.756332679349636</v>
       </c>
       <c r="I16">
-        <v>2.859461473613417</v>
+        <v>2.76889663593508</v>
       </c>
       <c r="J16">
-        <v>9.128890296837993</v>
+        <v>9.067731611016091</v>
       </c>
       <c r="K16">
-        <v>13.71272342676946</v>
+        <v>13.19189090397563</v>
       </c>
       <c r="L16">
-        <v>5.198433020904384</v>
+        <v>10.79324056874869</v>
       </c>
       <c r="M16">
-        <v>13.53629994819451</v>
+        <v>8.677541048579601</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.218468227356026</v>
       </c>
       <c r="O16">
-        <v>10.9991333856961</v>
+        <v>13.61831112743291</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14.66899497720895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.06467676156366</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>14.20318335955916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.83106808238074</v>
+        <v>14.79342367730851</v>
       </c>
       <c r="C17">
-        <v>8.855355230650549</v>
+        <v>9.095508235945266</v>
       </c>
       <c r="D17">
-        <v>9.594659461012805</v>
+        <v>9.601321462241188</v>
       </c>
       <c r="E17">
-        <v>8.262035192208925</v>
+        <v>8.290503025806565</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22.22612846791113</v>
+        <v>21.08629741693858</v>
       </c>
       <c r="H17">
-        <v>6.074206714605848</v>
+        <v>6.054818288584837</v>
       </c>
       <c r="I17">
-        <v>2.910978072725645</v>
+        <v>2.813490165727443</v>
       </c>
       <c r="J17">
-        <v>9.253077790896963</v>
+        <v>9.275064574649711</v>
       </c>
       <c r="K17">
-        <v>13.9368125679744</v>
+        <v>13.41288176982533</v>
       </c>
       <c r="L17">
-        <v>5.160497345275726</v>
+        <v>10.95297642911198</v>
       </c>
       <c r="M17">
-        <v>13.27825029761571</v>
+        <v>8.834332509096571</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.182909615681343</v>
       </c>
       <c r="O17">
-        <v>11.15586799476897</v>
+        <v>13.3668624361671</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14.94028550603373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.22484515172308</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.49606266285569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.56740915145712</v>
+        <v>14.51942323986776</v>
       </c>
       <c r="C18">
-        <v>8.806780629651826</v>
+        <v>9.098793382807779</v>
       </c>
       <c r="D18">
-        <v>10.1648590968697</v>
+        <v>10.17072482239356</v>
       </c>
       <c r="E18">
-        <v>9.063479317657528</v>
+        <v>9.087855992520289</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23.31145052496125</v>
+        <v>21.99542651584391</v>
       </c>
       <c r="H18">
-        <v>4.892525761937803</v>
+        <v>4.867579262245929</v>
       </c>
       <c r="I18">
-        <v>2.919593612206682</v>
+        <v>2.818039261600563</v>
       </c>
       <c r="J18">
-        <v>9.448234724532107</v>
+        <v>9.49079216853465</v>
       </c>
       <c r="K18">
-        <v>14.27521665330654</v>
+        <v>13.70931599199721</v>
       </c>
       <c r="L18">
-        <v>5.186704480393641</v>
+        <v>11.16998662381052</v>
       </c>
       <c r="M18">
-        <v>13.09861637773949</v>
+        <v>9.062082087634581</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.208505161666883</v>
       </c>
       <c r="O18">
-        <v>11.6541552180277</v>
+        <v>13.19775580909694</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15.40743763871923</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.73021460519349</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.93622782980701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.38357073655558</v>
+        <v>14.31836599003287</v>
       </c>
       <c r="C19">
-        <v>8.868756378459555</v>
+        <v>9.237718449193267</v>
       </c>
       <c r="D19">
-        <v>10.96073304570581</v>
+        <v>10.96420168525113</v>
       </c>
       <c r="E19">
-        <v>10.27465644373932</v>
+        <v>10.29075950824169</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24.68598830974102</v>
+        <v>23.22453755549853</v>
       </c>
       <c r="H19">
-        <v>3.533158749793608</v>
+        <v>3.500266550863889</v>
       </c>
       <c r="I19">
-        <v>2.910482945441555</v>
+        <v>2.811409687929828</v>
       </c>
       <c r="J19">
-        <v>9.680398928925003</v>
+        <v>9.708159404195944</v>
       </c>
       <c r="K19">
-        <v>14.67360647187663</v>
+        <v>14.04047552553158</v>
       </c>
       <c r="L19">
-        <v>5.369419552928909</v>
+        <v>11.41324759546634</v>
       </c>
       <c r="M19">
-        <v>13.00812196971816</v>
+        <v>9.325513579830577</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.387689624973378</v>
       </c>
       <c r="O19">
-        <v>12.38898274194853</v>
+        <v>13.12046542913349</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15.98230736447099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.47464998128183</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.45401547017825</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.46102498839912</v>
+        <v>14.35944848586539</v>
       </c>
       <c r="C20">
-        <v>9.146041789567411</v>
+        <v>9.654889279478454</v>
       </c>
       <c r="D20">
-        <v>12.32931348680396</v>
+        <v>12.32631835734682</v>
       </c>
       <c r="E20">
-        <v>12.42932326057675</v>
+        <v>12.42821223458438</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.92270254627805</v>
+        <v>25.41623483405255</v>
       </c>
       <c r="H20">
-        <v>2.19832543120949</v>
+        <v>2.159424006726068</v>
       </c>
       <c r="I20">
-        <v>2.816753671465662</v>
+        <v>2.730941335889801</v>
       </c>
       <c r="J20">
-        <v>10.02763716594624</v>
+        <v>9.919336189978734</v>
       </c>
       <c r="K20">
-        <v>15.26804544542686</v>
+        <v>14.48694333887591</v>
       </c>
       <c r="L20">
-        <v>5.925512626164283</v>
+        <v>11.71477361203098</v>
       </c>
       <c r="M20">
-        <v>13.15718459574907</v>
+        <v>9.731958700835714</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.933535057884329</v>
       </c>
       <c r="O20">
-        <v>13.71617525285387</v>
+        <v>13.28995331958976</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>16.88527866779551</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.81784034089382</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.2104458199614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.27061290631229</v>
+        <v>15.14868594404098</v>
       </c>
       <c r="C21">
-        <v>9.628212835797086</v>
+        <v>10.16507189836826</v>
       </c>
       <c r="D21">
-        <v>12.93146786958612</v>
+        <v>12.92034558004488</v>
       </c>
       <c r="E21">
-        <v>13.06216557502774</v>
+        <v>13.04330944226327</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27.55581596677307</v>
+        <v>27.38064565994234</v>
       </c>
       <c r="H21">
-        <v>1.915654922920736</v>
+        <v>1.897592378593709</v>
       </c>
       <c r="I21">
-        <v>2.640286441216053</v>
+        <v>2.583713667832056</v>
       </c>
       <c r="J21">
-        <v>10.04492177246759</v>
+        <v>9.271590587080638</v>
       </c>
       <c r="K21">
-        <v>15.24172666758364</v>
+        <v>14.25033507579784</v>
       </c>
       <c r="L21">
-        <v>6.095068147655678</v>
+        <v>11.4610967474656</v>
       </c>
       <c r="M21">
-        <v>13.83200927988482</v>
+        <v>9.704635636748554</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.090870137082611</v>
       </c>
       <c r="O21">
-        <v>14.46035501131991</v>
+        <v>13.95874297535174</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17.04475279222187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.5620934354206</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>16.07090769588398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.79174503987707</v>
+        <v>15.65953842790197</v>
       </c>
       <c r="C22">
-        <v>9.898934735961305</v>
+        <v>10.44222003718038</v>
       </c>
       <c r="D22">
-        <v>13.25934513922271</v>
+        <v>13.24354263326171</v>
       </c>
       <c r="E22">
-        <v>13.36820353058328</v>
+        <v>13.33920308674882</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.92421188777218</v>
+        <v>28.7513726489801</v>
       </c>
       <c r="H22">
-        <v>1.749199214678954</v>
+        <v>1.744333398237554</v>
       </c>
       <c r="I22">
-        <v>2.517317427218343</v>
+        <v>2.542834646980979</v>
       </c>
       <c r="J22">
-        <v>10.05046451016045</v>
+        <v>8.872402931986583</v>
       </c>
       <c r="K22">
-        <v>15.21943671874085</v>
+        <v>14.08199116981983</v>
       </c>
       <c r="L22">
-        <v>6.1735982861026</v>
+        <v>11.29129895392037</v>
       </c>
       <c r="M22">
-        <v>14.25351357317632</v>
+        <v>9.683285380371562</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.162136218082223</v>
       </c>
       <c r="O22">
-        <v>14.87534360329755</v>
+        <v>14.37478735603724</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17.13291783071016</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.97567035784151</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>15.95043894052226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.52305125312058</v>
+        <v>15.39418997984692</v>
       </c>
       <c r="C23">
-        <v>9.727158081275151</v>
+        <v>10.27657447030863</v>
       </c>
       <c r="D23">
-        <v>13.08593411182026</v>
+        <v>13.07268141096848</v>
       </c>
       <c r="E23">
-        <v>13.20717462224997</v>
+        <v>13.18377638235987</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.77378632261184</v>
+        <v>27.89097597001035</v>
       </c>
       <c r="H23">
-        <v>1.83706770448997</v>
+        <v>1.824392065947805</v>
       </c>
       <c r="I23">
-        <v>2.570210652168975</v>
+        <v>2.518094983798961</v>
       </c>
       <c r="J23">
-        <v>10.05562441792505</v>
+        <v>9.145449789237531</v>
       </c>
       <c r="K23">
-        <v>15.25182401940187</v>
+        <v>14.20641117178241</v>
       </c>
       <c r="L23">
-        <v>6.132554080295805</v>
+        <v>11.40381595079422</v>
       </c>
       <c r="M23">
-        <v>14.02502395613836</v>
+        <v>9.724440437163706</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.125258567363331</v>
       </c>
       <c r="O23">
-        <v>14.65183791919995</v>
+        <v>14.15158660247888</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17.10572601499109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.75417630933586</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>16.05922576922611</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.44652274985902</v>
+        <v>14.34296752569937</v>
       </c>
       <c r="C24">
-        <v>9.102111462440252</v>
+        <v>9.616918106641736</v>
       </c>
       <c r="D24">
-        <v>12.41128095758023</v>
+        <v>12.40804816019705</v>
       </c>
       <c r="E24">
-        <v>12.57792094648515</v>
+        <v>12.57614413536317</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.14688045508034</v>
+        <v>25.61454154864208</v>
       </c>
       <c r="H24">
-        <v>2.178212534804703</v>
+        <v>2.139278594051626</v>
       </c>
       <c r="I24">
-        <v>2.797174106683337</v>
+        <v>2.707751709719017</v>
       </c>
       <c r="J24">
-        <v>10.06770429300668</v>
+        <v>9.960468600269106</v>
       </c>
       <c r="K24">
-        <v>15.34977912574597</v>
+        <v>14.55859980997399</v>
       </c>
       <c r="L24">
-        <v>5.972580649391049</v>
+        <v>11.76771514641207</v>
       </c>
       <c r="M24">
-        <v>13.13338580557098</v>
+        <v>9.788213536502999</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.980167186939305</v>
       </c>
       <c r="O24">
-        <v>13.78156242994773</v>
+        <v>13.26761184566278</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16.98247595080637</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.88435512719786</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.30112299125853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.18406396643557</v>
+        <v>13.13270725533275</v>
       </c>
       <c r="C25">
-        <v>8.38652155201979</v>
+        <v>8.735350810209935</v>
       </c>
       <c r="D25">
-        <v>11.65071193399481</v>
+        <v>11.65749454727006</v>
       </c>
       <c r="E25">
-        <v>11.86484516958351</v>
+        <v>11.88374045280161</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.51174898470315</v>
+        <v>25.06755143162023</v>
       </c>
       <c r="H25">
-        <v>2.562533438098695</v>
+        <v>2.505376409830659</v>
       </c>
       <c r="I25">
-        <v>3.055602929670679</v>
+        <v>2.935354376678909</v>
       </c>
       <c r="J25">
-        <v>10.09346599526151</v>
+        <v>10.04243493799252</v>
       </c>
       <c r="K25">
-        <v>15.47476465530868</v>
+        <v>14.76888629947834</v>
       </c>
       <c r="L25">
-        <v>5.79291342579736</v>
+        <v>12.05217106775135</v>
       </c>
       <c r="M25">
-        <v>12.09877225199831</v>
+        <v>9.760687845457797</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.812473111366281</v>
       </c>
       <c r="O25">
-        <v>12.78265527982104</v>
+        <v>12.21346780880521</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16.87624820006849</v>
+        <v>12.87190487135338</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.30004002642879</v>
       </c>
     </row>
   </sheetData>
